--- a/static/bases/BaseParaAccessSimulacroAgosto2018.xlsx
+++ b/static/bases/BaseParaAccessSimulacroAgosto2018.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="697">
   <si>
     <t>COORDINADORES Y ASISTENTES DE PABELLÓN</t>
   </si>
@@ -76,7 +76,7 @@
     <t>00006990</t>
   </si>
   <si>
-    <t>20170180</t>
+    <t>01100792</t>
   </si>
   <si>
     <t>00008207</t>
@@ -325,94 +325,1765 @@
     <t>AULA DE COORDINACIÓN</t>
   </si>
   <si>
-    <t>01100717</t>
-  </si>
-  <si>
-    <t>19960363</t>
-  </si>
-  <si>
-    <t>20011066</t>
-  </si>
-  <si>
-    <t>20144108</t>
-  </si>
-  <si>
-    <t>00003378</t>
-  </si>
-  <si>
-    <t>CARRASCO VALLEJOS, REBECA</t>
-  </si>
-  <si>
-    <t>CENTENO ROJAS, LUIS RUMEL</t>
-  </si>
-  <si>
-    <t>FODALE VARGAS, LUIS ERNESTO</t>
-  </si>
-  <si>
-    <t>RUIZ OLORTINO, GEAN PIEER</t>
-  </si>
-  <si>
-    <t>VILCHEZ DAVILA, RAFAEL</t>
+    <t>01700032</t>
+  </si>
+  <si>
+    <t>19957155</t>
+  </si>
+  <si>
+    <t>H0000552</t>
+  </si>
+  <si>
+    <t>00007012</t>
+  </si>
+  <si>
+    <t>00002552</t>
+  </si>
+  <si>
+    <t>19762331</t>
+  </si>
+  <si>
+    <t>20038178</t>
+  </si>
+  <si>
+    <t>00003442</t>
+  </si>
+  <si>
+    <t>01500007</t>
+  </si>
+  <si>
+    <t>19902603</t>
+  </si>
+  <si>
+    <t>00008002</t>
+  </si>
+  <si>
+    <t>20085329</t>
+  </si>
+  <si>
+    <t>20123796</t>
+  </si>
+  <si>
+    <t>00007819</t>
+  </si>
+  <si>
+    <t>19960330</t>
+  </si>
+  <si>
+    <t>20098065</t>
+  </si>
+  <si>
+    <t>00009985</t>
+  </si>
+  <si>
+    <t>01500000</t>
+  </si>
+  <si>
+    <t>19921249</t>
+  </si>
+  <si>
+    <t>01400019</t>
+  </si>
+  <si>
+    <t>20133202</t>
+  </si>
+  <si>
+    <t>19952832</t>
+  </si>
+  <si>
+    <t>19994087</t>
+  </si>
+  <si>
+    <t>00001285</t>
+  </si>
+  <si>
+    <t>19854002</t>
+  </si>
+  <si>
+    <t>01400139</t>
+  </si>
+  <si>
+    <t>02009144</t>
+  </si>
+  <si>
+    <t>00002236</t>
+  </si>
+  <si>
+    <t>19961140</t>
+  </si>
+  <si>
+    <t>20086391</t>
+  </si>
+  <si>
+    <t>19950068</t>
+  </si>
+  <si>
+    <t>000098CQ</t>
+  </si>
+  <si>
+    <t>02005006</t>
+  </si>
+  <si>
+    <t>00008153</t>
+  </si>
+  <si>
+    <t>0000980Z</t>
+  </si>
+  <si>
+    <t>20021544</t>
+  </si>
+  <si>
+    <t>20004489</t>
+  </si>
+  <si>
+    <t>19900100</t>
+  </si>
+  <si>
+    <t>19921017</t>
+  </si>
+  <si>
+    <t>20024012</t>
+  </si>
+  <si>
+    <t>20112728</t>
+  </si>
+  <si>
+    <t>19882173</t>
+  </si>
+  <si>
+    <t>01100613</t>
+  </si>
+  <si>
+    <t>20075785</t>
+  </si>
+  <si>
+    <t>00005149</t>
+  </si>
+  <si>
+    <t>20144000</t>
+  </si>
+  <si>
+    <t>01700050</t>
+  </si>
+  <si>
+    <t>02007350</t>
+  </si>
+  <si>
+    <t>20023107</t>
+  </si>
+  <si>
+    <t>02003377</t>
+  </si>
+  <si>
+    <t>20074321</t>
+  </si>
+  <si>
+    <t>00009334</t>
+  </si>
+  <si>
+    <t>20064651</t>
+  </si>
+  <si>
+    <t>20144160</t>
+  </si>
+  <si>
+    <t>01400014</t>
+  </si>
+  <si>
+    <t>20013089</t>
+  </si>
+  <si>
+    <t>01600192</t>
+  </si>
+  <si>
+    <t>00004322</t>
+  </si>
+  <si>
+    <t>19990630</t>
+  </si>
+  <si>
+    <t>20012132</t>
+  </si>
+  <si>
+    <t>19953026</t>
+  </si>
+  <si>
+    <t>00003288</t>
+  </si>
+  <si>
+    <t>00009258</t>
+  </si>
+  <si>
+    <t>00004124</t>
+  </si>
+  <si>
+    <t>19956001</t>
+  </si>
+  <si>
+    <t>19950197</t>
+  </si>
+  <si>
+    <t>000098AT</t>
+  </si>
+  <si>
+    <t>00003477</t>
+  </si>
+  <si>
+    <t>I0001831</t>
+  </si>
+  <si>
+    <t>19840344</t>
+  </si>
+  <si>
+    <t>00008915</t>
+  </si>
+  <si>
+    <t>01200149</t>
+  </si>
+  <si>
+    <t>00005139</t>
+  </si>
+  <si>
+    <t>20034843</t>
+  </si>
+  <si>
+    <t>19971076</t>
+  </si>
+  <si>
+    <t>00004962</t>
+  </si>
+  <si>
+    <t>H0000837</t>
+  </si>
+  <si>
+    <t>00009417</t>
+  </si>
+  <si>
+    <t>00005559</t>
+  </si>
+  <si>
+    <t>20014663</t>
+  </si>
+  <si>
+    <t>20112789</t>
+  </si>
+  <si>
+    <t>19942820</t>
+  </si>
+  <si>
+    <t>20086398</t>
+  </si>
+  <si>
+    <t>19962823</t>
+  </si>
+  <si>
+    <t>20054539</t>
+  </si>
+  <si>
+    <t>20144177</t>
+  </si>
+  <si>
+    <t>20034108</t>
+  </si>
+  <si>
+    <t>00001006</t>
+  </si>
+  <si>
+    <t>20064406</t>
+  </si>
+  <si>
+    <t>19970209</t>
+  </si>
+  <si>
+    <t>H0000624</t>
+  </si>
+  <si>
+    <t>20095062</t>
+  </si>
+  <si>
+    <t>20031815</t>
+  </si>
+  <si>
+    <t>19912262</t>
+  </si>
+  <si>
+    <t>0000981C</t>
+  </si>
+  <si>
+    <t>20085002</t>
+  </si>
+  <si>
+    <t>00005410</t>
+  </si>
+  <si>
+    <t>00006202</t>
+  </si>
+  <si>
+    <t>02007023</t>
+  </si>
+  <si>
+    <t>20004350</t>
+  </si>
+  <si>
+    <t>20103014</t>
+  </si>
+  <si>
+    <t>02004296</t>
+  </si>
+  <si>
+    <t>01700153</t>
+  </si>
+  <si>
+    <t>20024788</t>
+  </si>
+  <si>
+    <t>19983207</t>
+  </si>
+  <si>
+    <t>01300093</t>
+  </si>
+  <si>
+    <t>20071411</t>
+  </si>
+  <si>
+    <t>H0000319</t>
+  </si>
+  <si>
+    <t>00006904</t>
+  </si>
+  <si>
+    <t>00001640</t>
+  </si>
+  <si>
+    <t>19911838</t>
+  </si>
+  <si>
+    <t>00006296</t>
+  </si>
+  <si>
+    <t>19980451</t>
+  </si>
+  <si>
+    <t>CALDERÓN URBINA, KAREN VIRGINIA</t>
+  </si>
+  <si>
+    <t>NÚÑEZ ESPINOZA, JULIO NÉSTOR</t>
+  </si>
+  <si>
+    <t>DELGADO RODRIGUEZ DE ROSSMANN, BERTHA DALILA</t>
+  </si>
+  <si>
+    <t>RAMIREZ ESPINOZA, JUAN ALFONSO</t>
+  </si>
+  <si>
+    <t>RAMIREZ MORE, JAVIER CECILIO</t>
+  </si>
+  <si>
+    <t>RODRÍGUEZ GONZÁLEZ, YOLANDA LUISA CLORINDA</t>
+  </si>
+  <si>
+    <t>COLLAZOS ZEGARRA, LUCY ZULMA</t>
+  </si>
+  <si>
+    <t>POIRIER SCHMITZ, ALFREDO BERNARDO</t>
+  </si>
+  <si>
+    <t>CARDENAS TORO, FIORELLA PATRICIA</t>
+  </si>
+  <si>
+    <t>SORIA AGUILAR, ALFREDO FERNANDO</t>
+  </si>
+  <si>
+    <t>LAZARO CARRION, MOISES SIMON</t>
+  </si>
+  <si>
+    <t>MONTENEGRO CHANCAFE, FLOR DEL PILAR</t>
+  </si>
+  <si>
+    <t>AUCCAPURI QUISPETUPA, DARWIN</t>
+  </si>
+  <si>
+    <t>VARGAS CACERES, SILVIA</t>
+  </si>
+  <si>
+    <t>FLORES MORALES, ALLAN WALTER</t>
+  </si>
+  <si>
+    <t>GILDEMEISTER HARO, KATHERINE PAOLA</t>
+  </si>
+  <si>
+    <t>CHOY ZAMBRANO, LILY</t>
+  </si>
+  <si>
+    <t>JARA GARCÍA, MITCHEL JIMMY</t>
+  </si>
+  <si>
+    <t>PAREDES VILCA, KATIA YSABEL</t>
+  </si>
+  <si>
+    <t>VILLEGAS TORRES, LUIS FERNANDO</t>
+  </si>
+  <si>
+    <t>GOMEZ CARBONEL, PIERO ENRIQUE</t>
+  </si>
+  <si>
+    <t>GUEVARA PAREDES, MELISA</t>
+  </si>
+  <si>
+    <t>AZAÑEDO SANDOVAL, SANDRA SALOMÉ</t>
+  </si>
+  <si>
+    <t>FOY VALENCIA, PIERRE CLAUDIO</t>
+  </si>
+  <si>
+    <t>BONDIA INGAR, MARIA DOLORES</t>
+  </si>
+  <si>
+    <t>VIVEEN , WILLEM</t>
+  </si>
+  <si>
+    <t>CIRUELOS INFANZON, BLANCA PILAR</t>
+  </si>
+  <si>
+    <t>TUPIA ANTICONA, WALTER MARIANO</t>
+  </si>
+  <si>
+    <t>HARO TREJO, JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>MELENDEZ NAJARRO, ESTHER NATALIA</t>
+  </si>
+  <si>
+    <t>CARPIO NOLASCO, MARIO AUGUSTO</t>
+  </si>
+  <si>
+    <t>GIL JURADO, KATERINA GIANINA</t>
+  </si>
+  <si>
+    <t>MERLUZZI MEZA, VERONICA ANA</t>
+  </si>
+  <si>
+    <t>QUEVEDO DIOSES, FERNANDO IGNACIO</t>
+  </si>
+  <si>
+    <t>FLORES MILLA, JAIME LORENZO</t>
+  </si>
+  <si>
+    <t>VILLA LONGA, ROXANA VANESSA</t>
+  </si>
+  <si>
+    <t>FERNÁNDEZ CASTILLO, PATRICIA ROSA</t>
+  </si>
+  <si>
+    <t>PEHOVAZ ALVAREZ, RICHARD PAUL</t>
+  </si>
+  <si>
+    <t>CAMPOS MALDONADO, JAVIER ORLANDO</t>
+  </si>
+  <si>
+    <t>LOSTAUNAU CALERO, ANA VANESSA</t>
+  </si>
+  <si>
+    <t>PAZ ESPINOZA, FREDDY ALBERTO</t>
+  </si>
+  <si>
+    <t>REVILLA IZQUIERDO, MILAGROS AURORA</t>
+  </si>
+  <si>
+    <t>ARÉVALO DELGADO, JOSÉ MIGUEL</t>
+  </si>
+  <si>
+    <t>FLORES QUESQUEN, MARIA IRIS</t>
+  </si>
+  <si>
+    <t>CHONG CACERES, MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>TEVES AGUIRRE, BETTY MERCEDES</t>
+  </si>
+  <si>
+    <t>GARCÍA RIVERO, ALBERTO ENRIQUE</t>
+  </si>
+  <si>
+    <t>ROMERO TRAGODARA, ARACCELLY GRACIELA</t>
+  </si>
+  <si>
+    <t>MORENO GONZÁLEZ, RAFAEL</t>
+  </si>
+  <si>
+    <t>RODRÍGUEZ DANERI, CARMEN ROXANE</t>
+  </si>
+  <si>
+    <t>GALARRETA ASIAN, ANA PAULA</t>
+  </si>
+  <si>
+    <t>HINOJOSA LAZO, HILMAR ANTONIO</t>
+  </si>
+  <si>
+    <t>VALLE VERA, MARIA LUCIA</t>
+  </si>
+  <si>
+    <t>VASQUEZ VILLAFANA, GLIBVER JOSE</t>
+  </si>
+  <si>
+    <t>JIMÉNEZ DE CISNEROS FONFRÍA, JUAN JOSE</t>
+  </si>
+  <si>
+    <t>LARA ACUÑA, NATALIA</t>
+  </si>
+  <si>
+    <t>GIUSTI , ELISA</t>
+  </si>
+  <si>
+    <t>ROCCA ESPINOZA, SALUSTIANO EDUARDO</t>
+  </si>
+  <si>
+    <t>DEL CASTILLO MANCO, ANÍBAL GONZALO</t>
+  </si>
+  <si>
+    <t>QUISPE ACOSTA, MARIA IBETTE</t>
+  </si>
+  <si>
+    <t>GUTIERREZ AZABACHE, MARIA GRACIELA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ HERNANDEZ, JORGE ANTONIO</t>
+  </si>
+  <si>
+    <t>ALBERTOLETTI CHICHIZOLA, GINA GIUGLIANA</t>
+  </si>
+  <si>
+    <t>PEREZ BALLON, LUIS VICENTE</t>
+  </si>
+  <si>
+    <t>ACEVEDO ROJAS, JORGE LUIS</t>
+  </si>
+  <si>
+    <t>RONCAL NEYRA, ANA CECILIA GRISELDA</t>
+  </si>
+  <si>
+    <t>CASTELLARES AÑAZCO, KATIA ELIZABETH</t>
+  </si>
+  <si>
+    <t>MELGAREJO PONTE, OSCAR ANTONIO</t>
+  </si>
+  <si>
+    <t>REY COSTA, NANCY ARMENIA</t>
+  </si>
+  <si>
+    <t>ZAPATA CARREÑO, JAIME FRANCISCO</t>
+  </si>
+  <si>
+    <t>AJITO LAM, EDUARDO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ BAUTISTA, MARIA VIVIANA</t>
+  </si>
+  <si>
+    <t>MESTANZA MALASPINA, ADALBERTO FERNANDO</t>
+  </si>
+  <si>
+    <t>NAVARRO ALVARADO, LAURA MARINA</t>
+  </si>
+  <si>
+    <t>CARPIO NOLASCO, JESUS DANIEL</t>
+  </si>
+  <si>
+    <t>VADILLO CARRASCO, ESTHER EUGENIA</t>
+  </si>
+  <si>
+    <t>DAVILA CUIRO, GABY LEONOR</t>
+  </si>
+  <si>
+    <t>VILLOGAS HINOSTROZA, EDWIN</t>
+  </si>
+  <si>
+    <t>ALVAREZ ESPINOZA, FERNANDO RAUL</t>
+  </si>
+  <si>
+    <t>SEVILLANO CHÁVEZ, CLAUDIA LUCÍA</t>
+  </si>
+  <si>
+    <t>SOLÓRZANO MAMANI, MARCO GREGORIO</t>
+  </si>
+  <si>
+    <t>ZUTA VIDAL, ERIKA IRENE</t>
+  </si>
+  <si>
+    <t>GUTIERREZ GALARZA, VICENTE PABLO</t>
+  </si>
+  <si>
+    <t>MESIA MARINO, YLSE LORENA</t>
+  </si>
+  <si>
+    <t>ALARCON GUTIERREZ, PATRICIA</t>
+  </si>
+  <si>
+    <t>CENTURION RODRIGUEZ, FRANCO LUIGI</t>
+  </si>
+  <si>
+    <t>MONTOYA ROBLES, TERESA DEL PILAR</t>
+  </si>
+  <si>
+    <t>CHAVEZ MUÑOZ, PASTOR DAVID</t>
+  </si>
+  <si>
+    <t>LA ROSA HUAMAN, MILAGROS DEIDAMIA</t>
+  </si>
+  <si>
+    <t>SANCHEZ FLORES, MIGUEL ANTONIO</t>
+  </si>
+  <si>
+    <t>SANTIAGO ABREGÚ, LUPE</t>
+  </si>
+  <si>
+    <t>ARCE CIGÜEÑAS, DIEGO MARTIN</t>
+  </si>
+  <si>
+    <t>DÁVILA VILLACORTA, REGINA MILAGROS</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA PORTOCARRERO, FERNANDO RAFAEL</t>
+  </si>
+  <si>
+    <t>DIAZ MARIÑOS, SUSANA ROSA</t>
+  </si>
+  <si>
+    <t>BENDEZU MEDINA, TATIANA</t>
+  </si>
+  <si>
+    <t>RAMIREZ MONROY, PEDRO RAUL ALCIDES</t>
+  </si>
+  <si>
+    <t>BAZAN REATEGUI, JOSE FERNANDO</t>
+  </si>
+  <si>
+    <t>SEVILLA MERCADO, VANESSA GIOVANNA</t>
+  </si>
+  <si>
+    <t>COUILLAUD NEGRÓN, FLORENCE MARIE</t>
+  </si>
+  <si>
+    <t>VARGAS TORRES, JORGE ERNESTO</t>
+  </si>
+  <si>
+    <t>CARDENAS DELGADO, LILIANA</t>
+  </si>
+  <si>
+    <t>LÓPEZ BENDEZÚ, MARKO ANTONIO</t>
+  </si>
+  <si>
+    <t>IBÁÑEZ BLANCAS, FRANKLIN ERNESTO</t>
+  </si>
+  <si>
+    <t>MEDINA HÚ, LUCERO CAROLL</t>
+  </si>
+  <si>
+    <t>BELTRÁN CASTAÑÓN, CÉSAR ARMANDO</t>
+  </si>
+  <si>
+    <t>CORRO QUINTANA, SILVANA MERCEDES</t>
+  </si>
+  <si>
+    <t>ROJAS OSORIO, ROXANA IVONNE</t>
+  </si>
+  <si>
+    <t>TORRES MENDOZA, LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>QUIROZ FERNANDEZ, AGUEDITA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>VERA VELASQUEZ, VICTOR HUGO</t>
+  </si>
+  <si>
+    <t>BLANCO DEL ROSARIO, ARMANDO MARTIN</t>
+  </si>
+  <si>
+    <t>GUIMARAY RIBEYRO, ROSA AMPARO</t>
+  </si>
+  <si>
+    <t>CALDERÓN</t>
+  </si>
+  <si>
+    <t>NÚÑEZ</t>
+  </si>
+  <si>
+    <t>DELGADO</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>RODRÍGUEZ</t>
+  </si>
+  <si>
+    <t>COLLAZOS</t>
+  </si>
+  <si>
+    <t>POIRIER</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>SORIA</t>
+  </si>
+  <si>
+    <t>LAZARO</t>
+  </si>
+  <si>
+    <t>MONTENEGRO</t>
+  </si>
+  <si>
+    <t>AUCCAPURI</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GILDEMEISTER</t>
+  </si>
+  <si>
+    <t>CHOY</t>
+  </si>
+  <si>
+    <t>JARA</t>
+  </si>
+  <si>
+    <t>PAREDES</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>AZAÑEDO</t>
+  </si>
+  <si>
+    <t>FOY</t>
+  </si>
+  <si>
+    <t>BONDIA</t>
+  </si>
+  <si>
+    <t>VIVEEN</t>
+  </si>
+  <si>
+    <t>CIRUELOS</t>
+  </si>
+  <si>
+    <t>TUPIA</t>
+  </si>
+  <si>
+    <t>HARO</t>
+  </si>
+  <si>
+    <t>MELENDEZ</t>
+  </si>
+  <si>
+    <t>CARPIO</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>MERLUZZI</t>
+  </si>
+  <si>
+    <t>QUEVEDO</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>FERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>PEHOVAZ</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>LOSTAUNAU</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>REVILLA</t>
+  </si>
+  <si>
+    <t>ARÉVALO</t>
+  </si>
+  <si>
+    <t>CHONG</t>
+  </si>
+  <si>
+    <t>TEVES</t>
+  </si>
+  <si>
+    <t>GARCÍA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>GALARRETA</t>
+  </si>
+  <si>
+    <t>HINOJOSA</t>
+  </si>
+  <si>
+    <t>VALLE</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>JIMÉNEZ DE CISNEROS</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>GIUSTI</t>
+  </si>
+  <si>
+    <t>ROCCA</t>
+  </si>
+  <si>
+    <t>DEL CASTILLO</t>
+  </si>
+  <si>
+    <t>QUISPE</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ALBERTOLETTI</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>ACEVEDO</t>
+  </si>
+  <si>
+    <t>RONCAL</t>
+  </si>
+  <si>
+    <t>CASTELLARES</t>
+  </si>
+  <si>
+    <t>MELGAREJO</t>
+  </si>
+  <si>
+    <t>REY</t>
+  </si>
+  <si>
+    <t>ZAPATA</t>
+  </si>
+  <si>
+    <t>AJITO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>MESTANZA</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>VADILLO</t>
+  </si>
+  <si>
+    <t>DAVILA</t>
+  </si>
+  <si>
+    <t>VILLOGAS</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>SEVILLANO</t>
+  </si>
+  <si>
+    <t>SOLÓRZANO</t>
+  </si>
+  <si>
+    <t>ZUTA</t>
+  </si>
+  <si>
+    <t>MESIA</t>
+  </si>
+  <si>
+    <t>ALARCON</t>
+  </si>
+  <si>
+    <t>CENTURION</t>
+  </si>
+  <si>
+    <t>MONTOYA</t>
+  </si>
+  <si>
+    <t>LA ROSA</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>ARCE</t>
+  </si>
+  <si>
+    <t>DÁVILA</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>BENDEZU</t>
+  </si>
+  <si>
+    <t>BAZAN</t>
+  </si>
+  <si>
+    <t>SEVILLA</t>
+  </si>
+  <si>
+    <t>COUILLAUD</t>
+  </si>
+  <si>
+    <t>LÓPEZ</t>
+  </si>
+  <si>
+    <t>IBÁÑEZ</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>BELTRÁN</t>
+  </si>
+  <si>
+    <t>CORRO</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>QUIROZ</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>BLANCO</t>
+  </si>
+  <si>
+    <t>GUIMARAY</t>
+  </si>
+  <si>
+    <t>URBINA</t>
+  </si>
+  <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ DE ROSSMANN</t>
+  </si>
+  <si>
+    <t>MORE</t>
+  </si>
+  <si>
+    <t>GONZÁLEZ</t>
+  </si>
+  <si>
+    <t>ZEGARRA</t>
+  </si>
+  <si>
+    <t>SCHMITZ</t>
+  </si>
+  <si>
+    <t>TORO</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CARRION</t>
+  </si>
+  <si>
+    <t>CHANCAFE</t>
+  </si>
+  <si>
+    <t>QUISPETUPA</t>
+  </si>
+  <si>
+    <t>CACERES</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ZAMBRANO</t>
+  </si>
+  <si>
+    <t>VILCA</t>
+  </si>
+  <si>
+    <t>CARBONEL</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>INGAR</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>INFANZON</t>
+  </si>
+  <si>
+    <t>ANTICONA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>NAJARRO</t>
+  </si>
+  <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
+    <t>JURADO</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>DIOSES</t>
+  </si>
+  <si>
+    <t>MILLA</t>
+  </si>
+  <si>
+    <t>LONGA</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>MALDONADO</t>
+  </si>
+  <si>
+    <t>CALERO</t>
+  </si>
+  <si>
+    <t>IZQUIERDO</t>
+  </si>
+  <si>
+    <t>QUESQUEN</t>
+  </si>
+  <si>
+    <t>AGUIRRE</t>
+  </si>
+  <si>
+    <t>RIVERO</t>
+  </si>
+  <si>
+    <t>TRAGODARA</t>
+  </si>
+  <si>
+    <t>DANERI</t>
+  </si>
+  <si>
+    <t>ASIAN</t>
+  </si>
+  <si>
+    <t>LAZO</t>
+  </si>
+  <si>
+    <t>VILLAFANA</t>
+  </si>
+  <si>
+    <t>FONFRÍA</t>
+  </si>
+  <si>
+    <t>ACUÑA</t>
+  </si>
+  <si>
+    <t>MANCO</t>
+  </si>
+  <si>
+    <t>ACOSTA</t>
+  </si>
+  <si>
+    <t>AZABACHE</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>CHICHIZOLA</t>
+  </si>
+  <si>
+    <t>BALLON</t>
+  </si>
+  <si>
+    <t>AÑAZCO</t>
+  </si>
+  <si>
+    <t>PONTE</t>
+  </si>
+  <si>
+    <t>COSTA</t>
+  </si>
+  <si>
+    <t>CARREÑO</t>
+  </si>
+  <si>
+    <t>LAM</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>MALASPINA</t>
+  </si>
+  <si>
+    <t>ALVARADO</t>
   </si>
   <si>
     <t>CARRASCO</t>
   </si>
   <si>
-    <t>CENTENO</t>
-  </si>
-  <si>
-    <t>FODALE</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>VILCHEZ</t>
-  </si>
-  <si>
-    <t>VALLEJOS</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>OLORTINO</t>
-  </si>
-  <si>
-    <t>DAVILA</t>
-  </si>
-  <si>
-    <t>REBECA</t>
-  </si>
-  <si>
-    <t>LUIS RUMEL</t>
-  </si>
-  <si>
-    <t>LUIS ERNESTO</t>
-  </si>
-  <si>
-    <t>GEAN PIEER</t>
+    <t>CUIRO</t>
+  </si>
+  <si>
+    <t>HINOSTROZA</t>
+  </si>
+  <si>
+    <t>CHÁVEZ</t>
+  </si>
+  <si>
+    <t>MAMANI</t>
+  </si>
+  <si>
+    <t>VIDAL</t>
+  </si>
+  <si>
+    <t>GALARZA</t>
+  </si>
+  <si>
+    <t>MARINO</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>HUAMAN</t>
+  </si>
+  <si>
+    <t>ABREGÚ</t>
+  </si>
+  <si>
+    <t>CIGÜEÑAS</t>
+  </si>
+  <si>
+    <t>VILLACORTA</t>
+  </si>
+  <si>
+    <t>PORTOCARRERO</t>
+  </si>
+  <si>
+    <t>MARIÑOS</t>
+  </si>
+  <si>
+    <t>MONROY</t>
+  </si>
+  <si>
+    <t>REATEGUI</t>
+  </si>
+  <si>
+    <t>MERCADO</t>
+  </si>
+  <si>
+    <t>NEGRÓN</t>
+  </si>
+  <si>
+    <t>BENDEZÚ</t>
+  </si>
+  <si>
+    <t>BLANCAS</t>
+  </si>
+  <si>
+    <t>HÚ</t>
+  </si>
+  <si>
+    <t>CASTAÑÓN</t>
+  </si>
+  <si>
+    <t>QUINTANA</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>VELASQUEZ</t>
+  </si>
+  <si>
+    <t>DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>RIBEYRO</t>
+  </si>
+  <si>
+    <t>KAREN VIRGINIA</t>
+  </si>
+  <si>
+    <t>JULIO NÉSTOR</t>
+  </si>
+  <si>
+    <t>BERTHA DALILA</t>
+  </si>
+  <si>
+    <t>JUAN ALFONSO</t>
+  </si>
+  <si>
+    <t>JAVIER CECILIO</t>
+  </si>
+  <si>
+    <t>YOLANDA LUISA CLORINDA</t>
+  </si>
+  <si>
+    <t>LUCY ZULMA</t>
+  </si>
+  <si>
+    <t>ALFREDO BERNARDO</t>
+  </si>
+  <si>
+    <t>FIORELLA PATRICIA</t>
+  </si>
+  <si>
+    <t>ALFREDO FERNANDO</t>
+  </si>
+  <si>
+    <t>MOISES SIMON</t>
+  </si>
+  <si>
+    <t>FLOR DEL PILAR</t>
+  </si>
+  <si>
+    <t>DARWIN</t>
+  </si>
+  <si>
+    <t>SILVIA</t>
+  </si>
+  <si>
+    <t>ALLAN WALTER</t>
+  </si>
+  <si>
+    <t>KATHERINE PAOLA</t>
+  </si>
+  <si>
+    <t>LILY</t>
+  </si>
+  <si>
+    <t>MITCHEL JIMMY</t>
+  </si>
+  <si>
+    <t>KATIA YSABEL</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO</t>
+  </si>
+  <si>
+    <t>PIERO ENRIQUE</t>
+  </si>
+  <si>
+    <t>MELISA</t>
+  </si>
+  <si>
+    <t>SANDRA SALOMÉ</t>
+  </si>
+  <si>
+    <t>PIERRE CLAUDIO</t>
+  </si>
+  <si>
+    <t>MARIA DOLORES</t>
+  </si>
+  <si>
+    <t>WILLEM</t>
+  </si>
+  <si>
+    <t>BLANCA PILAR</t>
+  </si>
+  <si>
+    <t>WALTER MARIANO</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>ESTHER NATALIA</t>
+  </si>
+  <si>
+    <t>MARIO AUGUSTO</t>
+  </si>
+  <si>
+    <t>KATERINA GIANINA</t>
+  </si>
+  <si>
+    <t>VERONICA ANA</t>
+  </si>
+  <si>
+    <t>FERNANDO IGNACIO</t>
+  </si>
+  <si>
+    <t>JAIME LORENZO</t>
+  </si>
+  <si>
+    <t>ROXANA VANESSA</t>
+  </si>
+  <si>
+    <t>PATRICIA ROSA</t>
+  </si>
+  <si>
+    <t>RICHARD PAUL</t>
+  </si>
+  <si>
+    <t>JAVIER ORLANDO</t>
+  </si>
+  <si>
+    <t>ANA VANESSA</t>
+  </si>
+  <si>
+    <t>FREDDY ALBERTO</t>
+  </si>
+  <si>
+    <t>MILAGROS AURORA</t>
+  </si>
+  <si>
+    <t>JOSÉ MIGUEL</t>
+  </si>
+  <si>
+    <t>MARIA IRIS</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>BETTY MERCEDES</t>
+  </si>
+  <si>
+    <t>ALBERTO ENRIQUE</t>
+  </si>
+  <si>
+    <t>ARACCELLY GRACIELA</t>
   </si>
   <si>
     <t>RAFAEL</t>
   </si>
   <si>
+    <t>CARMEN ROXANE</t>
+  </si>
+  <si>
+    <t>ANA PAULA</t>
+  </si>
+  <si>
+    <t>HILMAR ANTONIO</t>
+  </si>
+  <si>
+    <t>MARIA LUCIA</t>
+  </si>
+  <si>
+    <t>GLIBVER JOSE</t>
+  </si>
+  <si>
+    <t>JUAN JOSE</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>SALUSTIANO EDUARDO</t>
+  </si>
+  <si>
+    <t>ANÍBAL GONZALO</t>
+  </si>
+  <si>
+    <t>MARIA IBETTE</t>
+  </si>
+  <si>
+    <t>MARIA GRACIELA</t>
+  </si>
+  <si>
+    <t>JORGE ANTONIO</t>
+  </si>
+  <si>
+    <t>GINA GIUGLIANA</t>
+  </si>
+  <si>
+    <t>LUIS VICENTE</t>
+  </si>
+  <si>
+    <t>JORGE LUIS</t>
+  </si>
+  <si>
+    <t>ANA CECILIA GRISELDA</t>
+  </si>
+  <si>
+    <t>KATIA ELIZABETH</t>
+  </si>
+  <si>
+    <t>OSCAR ANTONIO</t>
+  </si>
+  <si>
+    <t>NANCY ARMENIA</t>
+  </si>
+  <si>
+    <t>JAIME FRANCISCO</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>MARIA VIVIANA</t>
+  </si>
+  <si>
+    <t>ADALBERTO FERNANDO</t>
+  </si>
+  <si>
+    <t>LAURA MARINA</t>
+  </si>
+  <si>
+    <t>JESUS DANIEL</t>
+  </si>
+  <si>
+    <t>ESTHER EUGENIA</t>
+  </si>
+  <si>
+    <t>GABY LEONOR</t>
+  </si>
+  <si>
+    <t>EDWIN</t>
+  </si>
+  <si>
+    <t>FERNANDO RAUL</t>
+  </si>
+  <si>
+    <t>CLAUDIA LUCÍA</t>
+  </si>
+  <si>
+    <t>MARCO GREGORIO</t>
+  </si>
+  <si>
+    <t>ERIKA IRENE</t>
+  </si>
+  <si>
+    <t>VICENTE PABLO</t>
+  </si>
+  <si>
+    <t>YLSE LORENA</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>FRANCO LUIGI</t>
+  </si>
+  <si>
+    <t>TERESA DEL PILAR</t>
+  </si>
+  <si>
+    <t>PASTOR DAVID</t>
+  </si>
+  <si>
+    <t>MILAGROS DEIDAMIA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANTONIO</t>
+  </si>
+  <si>
+    <t>LUPE</t>
+  </si>
+  <si>
+    <t>DIEGO MARTIN</t>
+  </si>
+  <si>
+    <t>REGINA MILAGROS</t>
+  </si>
+  <si>
+    <t>FERNANDO RAFAEL</t>
+  </si>
+  <si>
+    <t>SUSANA ROSA</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>PEDRO RAUL ALCIDES</t>
+  </si>
+  <si>
+    <t>JOSE FERNANDO</t>
+  </si>
+  <si>
+    <t>VANESSA GIOVANNA</t>
+  </si>
+  <si>
+    <t>FLORENCE MARIE</t>
+  </si>
+  <si>
+    <t>JORGE ERNESTO</t>
+  </si>
+  <si>
+    <t>LILIANA</t>
+  </si>
+  <si>
+    <t>MARKO ANTONIO</t>
+  </si>
+  <si>
+    <t>FRANKLIN ERNESTO</t>
+  </si>
+  <si>
+    <t>LUCERO CAROLL</t>
+  </si>
+  <si>
+    <t>CÉSAR ARMANDO</t>
+  </si>
+  <si>
+    <t>SILVANA MERCEDES</t>
+  </si>
+  <si>
+    <t>ROXANA IVONNE</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>AGUEDITA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO</t>
+  </si>
+  <si>
+    <t>ARMANDO MARTIN</t>
+  </si>
+  <si>
+    <t>ROSA AMPARO</t>
+  </si>
+  <si>
+    <t>E-101</t>
+  </si>
+  <si>
+    <t>E-102</t>
+  </si>
+  <si>
+    <t>E-103</t>
+  </si>
+  <si>
+    <t>E-104</t>
+  </si>
+  <si>
+    <t>E-105</t>
+  </si>
+  <si>
+    <t>E-106</t>
+  </si>
+  <si>
+    <t>E-115</t>
+  </si>
+  <si>
+    <t>E-116</t>
+  </si>
+  <si>
+    <t>E-201</t>
+  </si>
+  <si>
+    <t>E-202</t>
+  </si>
+  <si>
+    <t>E-203</t>
+  </si>
+  <si>
     <t>E-204</t>
   </si>
   <si>
+    <t>E-205</t>
+  </si>
+  <si>
+    <t>E-206</t>
+  </si>
+  <si>
+    <t>E-207</t>
+  </si>
+  <si>
+    <t>E-208</t>
+  </si>
+  <si>
+    <t>E-209</t>
+  </si>
+  <si>
+    <t>E-210</t>
+  </si>
+  <si>
+    <t>E-213</t>
+  </si>
+  <si>
+    <t>E-303</t>
+  </si>
+  <si>
+    <t>E-306</t>
+  </si>
+  <si>
+    <t>E-308</t>
+  </si>
+  <si>
+    <t>E-309</t>
+  </si>
+  <si>
+    <t>E-310</t>
+  </si>
+  <si>
+    <t>E-311</t>
+  </si>
+  <si>
+    <t>E-214</t>
+  </si>
+  <si>
+    <t>E-216</t>
+  </si>
+  <si>
+    <t>E-217</t>
+  </si>
+  <si>
+    <t>E-301</t>
+  </si>
+  <si>
+    <t>E-304</t>
+  </si>
+  <si>
+    <t>E-314</t>
+  </si>
+  <si>
+    <t>E-315</t>
+  </si>
+  <si>
+    <t>L-101</t>
+  </si>
+  <si>
+    <t>L-102</t>
+  </si>
+  <si>
+    <t>L-103</t>
+  </si>
+  <si>
     <t>L-104</t>
   </si>
   <si>
-    <t>E-205</t>
-  </si>
-  <si>
-    <t>L-102</t>
-  </si>
-  <si>
-    <t>E-115</t>
+    <t>L-215</t>
+  </si>
+  <si>
+    <t>L-216</t>
+  </si>
+  <si>
+    <t>L-217</t>
+  </si>
+  <si>
+    <t>L-218</t>
+  </si>
+  <si>
+    <t>L-219</t>
+  </si>
+  <si>
+    <t>L-220</t>
+  </si>
+  <si>
+    <t>L-304</t>
+  </si>
+  <si>
+    <t>L-305</t>
+  </si>
+  <si>
+    <t>L-306</t>
+  </si>
+  <si>
+    <t>L-318</t>
+  </si>
+  <si>
+    <t>L-319</t>
+  </si>
+  <si>
+    <t>L-320</t>
+  </si>
+  <si>
+    <t>L-321</t>
+  </si>
+  <si>
+    <t>L-322</t>
+  </si>
+  <si>
+    <t>L-323</t>
+  </si>
+  <si>
+    <t>L-309</t>
+  </si>
+  <si>
+    <t>L-310</t>
+  </si>
+  <si>
+    <t>L-311</t>
+  </si>
+  <si>
+    <t>L-312</t>
+  </si>
+  <si>
+    <t>L-313</t>
+  </si>
+  <si>
+    <t>L-315</t>
   </si>
   <si>
     <t>Aula</t>
@@ -1188,7 +2859,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1231,25 +2902,25 @@
         <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>328</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>429</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>519</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>632</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1257,25 +2928,25 @@
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>430</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>520</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>632</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1283,25 +2954,25 @@
         <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>330</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>431</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>521</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>633</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1309,25 +2980,25 @@
         <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>331</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>522</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>633</v>
       </c>
       <c r="I5" t="s">
         <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1335,25 +3006,2833 @@
         <v>106</v>
       </c>
       <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F6" t="s">
+        <v>523</v>
+      </c>
+      <c r="H6" t="s">
+        <v>634</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F7" t="s">
+        <v>524</v>
+      </c>
+      <c r="H7" t="s">
+        <v>634</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H8" t="s">
+        <v>635</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" t="s">
+        <v>435</v>
+      </c>
+      <c r="F9" t="s">
+        <v>526</v>
+      </c>
+      <c r="H9" t="s">
+        <v>635</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" t="s">
+        <v>436</v>
+      </c>
+      <c r="F10" t="s">
+        <v>527</v>
+      </c>
+      <c r="H10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
         <v>111</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" t="s">
+        <v>437</v>
+      </c>
+      <c r="F11" t="s">
+        <v>528</v>
+      </c>
+      <c r="H11" t="s">
+        <v>636</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" t="s">
+        <v>438</v>
+      </c>
+      <c r="F12" t="s">
+        <v>529</v>
+      </c>
+      <c r="H12" t="s">
+        <v>637</v>
+      </c>
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" t="s">
+        <v>439</v>
+      </c>
+      <c r="F13" t="s">
+        <v>530</v>
+      </c>
+      <c r="H13" t="s">
+        <v>637</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" t="s">
+        <v>440</v>
+      </c>
+      <c r="F14" t="s">
+        <v>531</v>
+      </c>
+      <c r="H14" t="s">
+        <v>638</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E15" t="s">
+        <v>441</v>
+      </c>
+      <c r="F15" t="s">
+        <v>532</v>
+      </c>
+      <c r="H15" t="s">
+        <v>638</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
         <v>116</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16" t="s">
+        <v>533</v>
+      </c>
+      <c r="H16" t="s">
+        <v>639</v>
+      </c>
+      <c r="I16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" t="s">
+        <v>355</v>
+      </c>
+      <c r="F17" t="s">
+        <v>534</v>
+      </c>
+      <c r="H17" t="s">
+        <v>639</v>
+      </c>
+      <c r="I17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" t="s">
+        <v>343</v>
+      </c>
+      <c r="E18" t="s">
+        <v>443</v>
+      </c>
+      <c r="F18" t="s">
+        <v>535</v>
+      </c>
+      <c r="H18" t="s">
+        <v>640</v>
+      </c>
+      <c r="I18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" t="s">
+        <v>371</v>
+      </c>
+      <c r="F19" t="s">
+        <v>536</v>
+      </c>
+      <c r="H19" t="s">
+        <v>640</v>
+      </c>
+      <c r="I19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" t="s">
+        <v>444</v>
+      </c>
+      <c r="F20" t="s">
+        <v>537</v>
+      </c>
+      <c r="H20" t="s">
+        <v>641</v>
+      </c>
+      <c r="I20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
         <v>121</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" t="s">
+        <v>424</v>
+      </c>
+      <c r="F21" t="s">
+        <v>538</v>
+      </c>
+      <c r="H21" t="s">
+        <v>641</v>
+      </c>
+      <c r="I21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" t="s">
+        <v>347</v>
+      </c>
+      <c r="E22" t="s">
+        <v>445</v>
+      </c>
+      <c r="F22" t="s">
+        <v>539</v>
+      </c>
+      <c r="H22" t="s">
+        <v>642</v>
+      </c>
+      <c r="I22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" t="s">
+        <v>345</v>
+      </c>
+      <c r="F23" t="s">
+        <v>540</v>
+      </c>
+      <c r="H23" t="s">
+        <v>642</v>
+      </c>
+      <c r="I23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" t="s">
+        <v>446</v>
+      </c>
+      <c r="F24" t="s">
+        <v>541</v>
+      </c>
+      <c r="H24" t="s">
+        <v>643</v>
+      </c>
+      <c r="I24" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" t="s">
+        <v>350</v>
+      </c>
+      <c r="E25" t="s">
+        <v>447</v>
+      </c>
+      <c r="F25" t="s">
+        <v>542</v>
+      </c>
+      <c r="H25" t="s">
+        <v>643</v>
+      </c>
+      <c r="I25" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
         <v>126</v>
       </c>
-      <c r="H6" t="s">
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" t="s">
+        <v>351</v>
+      </c>
+      <c r="E26" t="s">
+        <v>448</v>
+      </c>
+      <c r="F26" t="s">
+        <v>543</v>
+      </c>
+      <c r="H26" t="s">
+        <v>644</v>
+      </c>
+      <c r="I26" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" t="s">
+        <v>352</v>
+      </c>
+      <c r="E27" t="s">
+        <v>449</v>
+      </c>
+      <c r="F27" t="s">
+        <v>544</v>
+      </c>
+      <c r="H27" t="s">
+        <v>644</v>
+      </c>
+      <c r="I27" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" t="s">
+        <v>353</v>
+      </c>
+      <c r="E28" t="s">
+        <v>450</v>
+      </c>
+      <c r="F28" t="s">
+        <v>545</v>
+      </c>
+      <c r="H28" t="s">
+        <v>645</v>
+      </c>
+      <c r="I28" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" t="s">
+        <v>354</v>
+      </c>
+      <c r="E29" t="s">
+        <v>451</v>
+      </c>
+      <c r="F29" t="s">
+        <v>546</v>
+      </c>
+      <c r="H29" t="s">
+        <v>645</v>
+      </c>
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E30" t="s">
+        <v>452</v>
+      </c>
+      <c r="F30" t="s">
+        <v>547</v>
+      </c>
+      <c r="H30" t="s">
+        <v>646</v>
+      </c>
+      <c r="I30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
         <v>131</v>
       </c>
-      <c r="I6" t="s">
+      <c r="C31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" t="s">
+        <v>356</v>
+      </c>
+      <c r="E31" t="s">
+        <v>453</v>
+      </c>
+      <c r="F31" t="s">
+        <v>548</v>
+      </c>
+      <c r="H31" t="s">
+        <v>646</v>
+      </c>
+      <c r="I31" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" t="s">
+        <v>357</v>
+      </c>
+      <c r="E32" t="s">
+        <v>454</v>
+      </c>
+      <c r="F32" t="s">
+        <v>549</v>
+      </c>
+      <c r="H32" t="s">
+        <v>647</v>
+      </c>
+      <c r="I32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E33" t="s">
+        <v>455</v>
+      </c>
+      <c r="F33" t="s">
+        <v>550</v>
+      </c>
+      <c r="H33" t="s">
+        <v>647</v>
+      </c>
+      <c r="I33" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" t="s">
+        <v>359</v>
+      </c>
+      <c r="E34" t="s">
+        <v>456</v>
+      </c>
+      <c r="F34" t="s">
+        <v>551</v>
+      </c>
+      <c r="H34" t="s">
+        <v>648</v>
+      </c>
+      <c r="I34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" t="s">
+        <v>360</v>
+      </c>
+      <c r="E35" t="s">
+        <v>457</v>
+      </c>
+      <c r="F35" t="s">
+        <v>552</v>
+      </c>
+      <c r="H35" t="s">
+        <v>648</v>
+      </c>
+      <c r="I35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" t="s">
+        <v>341</v>
+      </c>
+      <c r="E36" t="s">
+        <v>458</v>
+      </c>
+      <c r="F36" t="s">
+        <v>553</v>
+      </c>
+      <c r="H36" t="s">
+        <v>649</v>
+      </c>
+      <c r="I36" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" t="s">
+        <v>361</v>
+      </c>
+      <c r="E37" t="s">
+        <v>459</v>
+      </c>
+      <c r="F37" t="s">
+        <v>554</v>
+      </c>
+      <c r="H37" t="s">
+        <v>649</v>
+      </c>
+      <c r="I37" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" t="s">
+        <v>362</v>
+      </c>
+      <c r="E38" t="s">
+        <v>460</v>
+      </c>
+      <c r="F38" t="s">
+        <v>555</v>
+      </c>
+      <c r="H38" t="s">
+        <v>650</v>
+      </c>
+      <c r="I38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s">
+        <v>252</v>
+      </c>
+      <c r="D39" t="s">
+        <v>363</v>
+      </c>
+      <c r="E39" t="s">
+        <v>401</v>
+      </c>
+      <c r="F39" t="s">
+        <v>556</v>
+      </c>
+      <c r="H39" t="s">
+        <v>650</v>
+      </c>
+      <c r="I39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" t="s">
+        <v>364</v>
+      </c>
+      <c r="E40" t="s">
+        <v>461</v>
+      </c>
+      <c r="F40" t="s">
+        <v>557</v>
+      </c>
+      <c r="H40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" t="s">
+        <v>365</v>
+      </c>
+      <c r="E41" t="s">
+        <v>462</v>
+      </c>
+      <c r="F41" t="s">
+        <v>558</v>
+      </c>
+      <c r="H41" t="s">
+        <v>651</v>
+      </c>
+      <c r="I41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" t="s">
+        <v>366</v>
+      </c>
+      <c r="E42" t="s">
+        <v>430</v>
+      </c>
+      <c r="F42" t="s">
+        <v>559</v>
+      </c>
+      <c r="H42" t="s">
+        <v>652</v>
+      </c>
+      <c r="I42" t="s">
+        <v>84</v>
+      </c>
+      <c r="J42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" t="s">
+        <v>367</v>
+      </c>
+      <c r="E43" t="s">
+        <v>463</v>
+      </c>
+      <c r="F43" t="s">
+        <v>560</v>
+      </c>
+      <c r="H43" t="s">
+        <v>652</v>
+      </c>
+      <c r="I43" t="s">
+        <v>84</v>
+      </c>
+      <c r="J43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" t="s">
+        <v>368</v>
+      </c>
+      <c r="E44" t="s">
+        <v>330</v>
+      </c>
+      <c r="F44" t="s">
+        <v>561</v>
+      </c>
+      <c r="H44" t="s">
+        <v>653</v>
+      </c>
+      <c r="I44" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" t="s">
+        <v>341</v>
+      </c>
+      <c r="E45" t="s">
+        <v>464</v>
+      </c>
+      <c r="F45" t="s">
+        <v>562</v>
+      </c>
+      <c r="H45" t="s">
+        <v>653</v>
+      </c>
+      <c r="I45" t="s">
+        <v>84</v>
+      </c>
+      <c r="J45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" t="s">
+        <v>259</v>
+      </c>
+      <c r="D46" t="s">
+        <v>369</v>
+      </c>
+      <c r="E46" t="s">
+        <v>441</v>
+      </c>
+      <c r="F46" t="s">
+        <v>563</v>
+      </c>
+      <c r="H46" t="s">
+        <v>654</v>
+      </c>
+      <c r="I46" t="s">
+        <v>84</v>
+      </c>
+      <c r="J46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>260</v>
+      </c>
+      <c r="D47" t="s">
+        <v>370</v>
+      </c>
+      <c r="E47" t="s">
+        <v>465</v>
+      </c>
+      <c r="F47" t="s">
+        <v>564</v>
+      </c>
+      <c r="H47" t="s">
+        <v>654</v>
+      </c>
+      <c r="I47" t="s">
+        <v>84</v>
+      </c>
+      <c r="J47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48" t="s">
+        <v>371</v>
+      </c>
+      <c r="E48" t="s">
+        <v>466</v>
+      </c>
+      <c r="F48" t="s">
+        <v>565</v>
+      </c>
+      <c r="H48" t="s">
+        <v>655</v>
+      </c>
+      <c r="I48" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>262</v>
+      </c>
+      <c r="D49" t="s">
+        <v>372</v>
+      </c>
+      <c r="E49" t="s">
+        <v>467</v>
+      </c>
+      <c r="F49" t="s">
+        <v>566</v>
+      </c>
+      <c r="H49" t="s">
+        <v>655</v>
+      </c>
+      <c r="I49" t="s">
+        <v>84</v>
+      </c>
+      <c r="J49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
+        <v>263</v>
+      </c>
+      <c r="D50" t="s">
+        <v>373</v>
+      </c>
+      <c r="E50" t="s">
+        <v>433</v>
+      </c>
+      <c r="F50" t="s">
+        <v>567</v>
+      </c>
+      <c r="H50" t="s">
+        <v>656</v>
+      </c>
+      <c r="I50" t="s">
+        <v>84</v>
+      </c>
+      <c r="J50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>264</v>
+      </c>
+      <c r="D51" t="s">
+        <v>332</v>
+      </c>
+      <c r="E51" t="s">
+        <v>468</v>
+      </c>
+      <c r="F51" t="s">
+        <v>568</v>
+      </c>
+      <c r="H51" t="s">
+        <v>656</v>
+      </c>
+      <c r="I51" t="s">
+        <v>84</v>
+      </c>
+      <c r="J51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" t="s">
+        <v>374</v>
+      </c>
+      <c r="E52" t="s">
+        <v>469</v>
+      </c>
+      <c r="F52" t="s">
+        <v>569</v>
+      </c>
+      <c r="H52" t="s">
+        <v>657</v>
+      </c>
+      <c r="I52" t="s">
+        <v>85</v>
+      </c>
+      <c r="J52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" t="s">
+        <v>375</v>
+      </c>
+      <c r="E53" t="s">
+        <v>470</v>
+      </c>
+      <c r="F53" t="s">
+        <v>570</v>
+      </c>
+      <c r="H53" t="s">
+        <v>657</v>
+      </c>
+      <c r="I53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" t="s">
+        <v>267</v>
+      </c>
+      <c r="D54" t="s">
+        <v>376</v>
+      </c>
+      <c r="E54" t="s">
+        <v>426</v>
+      </c>
+      <c r="F54" t="s">
+        <v>571</v>
+      </c>
+      <c r="H54" t="s">
+        <v>658</v>
+      </c>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+      <c r="J54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" t="s">
+        <v>377</v>
+      </c>
+      <c r="E55" t="s">
+        <v>471</v>
+      </c>
+      <c r="F55" t="s">
+        <v>572</v>
+      </c>
+      <c r="H55" t="s">
+        <v>658</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" t="s">
+        <v>378</v>
+      </c>
+      <c r="E56" t="s">
+        <v>472</v>
+      </c>
+      <c r="F56" t="s">
+        <v>573</v>
+      </c>
+      <c r="H56" t="s">
+        <v>659</v>
+      </c>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" t="s">
+        <v>379</v>
+      </c>
+      <c r="E57" t="s">
+        <v>473</v>
+      </c>
+      <c r="F57" t="s">
+        <v>574</v>
+      </c>
+      <c r="H57" t="s">
+        <v>659</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" t="s">
+        <v>380</v>
+      </c>
+      <c r="E58" t="s">
+        <v>449</v>
+      </c>
+      <c r="F58" t="s">
+        <v>575</v>
+      </c>
+      <c r="H58" t="s">
+        <v>660</v>
+      </c>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" t="s">
+        <v>381</v>
+      </c>
+      <c r="E59" t="s">
+        <v>430</v>
+      </c>
+      <c r="F59" t="s">
+        <v>576</v>
+      </c>
+      <c r="H59" t="s">
+        <v>660</v>
+      </c>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>273</v>
+      </c>
+      <c r="D60" t="s">
+        <v>382</v>
+      </c>
+      <c r="E60" t="s">
+        <v>474</v>
+      </c>
+      <c r="F60" t="s">
+        <v>577</v>
+      </c>
+      <c r="H60" t="s">
+        <v>661</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" t="s">
+        <v>274</v>
+      </c>
+      <c r="D61" t="s">
+        <v>383</v>
+      </c>
+      <c r="E61" t="s">
+        <v>475</v>
+      </c>
+      <c r="F61" t="s">
+        <v>578</v>
+      </c>
+      <c r="H61" t="s">
+        <v>661</v>
+      </c>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" t="s">
+        <v>275</v>
+      </c>
+      <c r="D62" t="s">
+        <v>384</v>
+      </c>
+      <c r="E62" t="s">
+        <v>476</v>
+      </c>
+      <c r="F62" t="s">
+        <v>579</v>
+      </c>
+      <c r="H62" t="s">
+        <v>662</v>
+      </c>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" t="s">
+        <v>385</v>
+      </c>
+      <c r="E63" t="s">
+        <v>477</v>
+      </c>
+      <c r="F63" t="s">
+        <v>580</v>
+      </c>
+      <c r="H63" t="s">
+        <v>662</v>
+      </c>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" t="s">
+        <v>386</v>
+      </c>
+      <c r="E64" t="s">
+        <v>478</v>
+      </c>
+      <c r="F64" t="s">
+        <v>581</v>
+      </c>
+      <c r="H64" t="s">
+        <v>663</v>
+      </c>
+      <c r="I64" t="s">
+        <v>85</v>
+      </c>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" t="s">
+        <v>387</v>
+      </c>
+      <c r="E65" t="s">
+        <v>479</v>
+      </c>
+      <c r="F65" t="s">
+        <v>582</v>
+      </c>
+      <c r="H65" t="s">
+        <v>663</v>
+      </c>
+      <c r="I65" t="s">
+        <v>85</v>
+      </c>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" t="s">
+        <v>279</v>
+      </c>
+      <c r="D66" t="s">
+        <v>388</v>
+      </c>
+      <c r="E66" t="s">
+        <v>423</v>
+      </c>
+      <c r="F66" t="s">
+        <v>583</v>
+      </c>
+      <c r="H66" t="s">
+        <v>664</v>
+      </c>
+      <c r="I66" t="s">
+        <v>86</v>
+      </c>
+      <c r="J66" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" t="s">
+        <v>280</v>
+      </c>
+      <c r="D67" t="s">
+        <v>389</v>
+      </c>
+      <c r="E67" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" t="s">
+        <v>584</v>
+      </c>
+      <c r="H67" t="s">
+        <v>664</v>
+      </c>
+      <c r="I67" t="s">
+        <v>86</v>
+      </c>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" t="s">
+        <v>390</v>
+      </c>
+      <c r="E68" t="s">
+        <v>480</v>
+      </c>
+      <c r="F68" t="s">
+        <v>585</v>
+      </c>
+      <c r="H68" t="s">
+        <v>665</v>
+      </c>
+      <c r="I68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" t="s">
+        <v>391</v>
+      </c>
+      <c r="E69" t="s">
+        <v>481</v>
+      </c>
+      <c r="F69" t="s">
+        <v>586</v>
+      </c>
+      <c r="H69" t="s">
+        <v>665</v>
+      </c>
+      <c r="I69" t="s">
+        <v>86</v>
+      </c>
+      <c r="J69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" t="s">
+        <v>283</v>
+      </c>
+      <c r="D70" t="s">
+        <v>392</v>
+      </c>
+      <c r="E70" t="s">
+        <v>482</v>
+      </c>
+      <c r="F70" t="s">
+        <v>587</v>
+      </c>
+      <c r="H70" t="s">
+        <v>666</v>
+      </c>
+      <c r="I70" t="s">
+        <v>86</v>
+      </c>
+      <c r="J70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" t="s">
+        <v>393</v>
+      </c>
+      <c r="E71" t="s">
+        <v>483</v>
+      </c>
+      <c r="F71" t="s">
+        <v>588</v>
+      </c>
+      <c r="H71" t="s">
+        <v>666</v>
+      </c>
+      <c r="I71" t="s">
+        <v>86</v>
+      </c>
+      <c r="J71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" t="s">
+        <v>394</v>
+      </c>
+      <c r="E72" t="s">
+        <v>484</v>
+      </c>
+      <c r="F72" t="s">
+        <v>589</v>
+      </c>
+      <c r="H72" t="s">
+        <v>667</v>
+      </c>
+      <c r="I72" t="s">
+        <v>86</v>
+      </c>
+      <c r="J72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" t="s">
+        <v>395</v>
+      </c>
+      <c r="E73" t="s">
+        <v>485</v>
+      </c>
+      <c r="F73" t="s">
+        <v>590</v>
+      </c>
+      <c r="H73" t="s">
+        <v>667</v>
+      </c>
+      <c r="I73" t="s">
+        <v>86</v>
+      </c>
+      <c r="J73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" t="s">
+        <v>287</v>
+      </c>
+      <c r="D74" t="s">
+        <v>396</v>
+      </c>
+      <c r="E74" t="s">
+        <v>486</v>
+      </c>
+      <c r="F74" t="s">
+        <v>591</v>
+      </c>
+      <c r="H74" t="s">
+        <v>668</v>
+      </c>
+      <c r="I74" t="s">
+        <v>86</v>
+      </c>
+      <c r="J74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" t="s">
+        <v>288</v>
+      </c>
+      <c r="D75" t="s">
+        <v>397</v>
+      </c>
+      <c r="E75" t="s">
+        <v>487</v>
+      </c>
+      <c r="F75" t="s">
+        <v>592</v>
+      </c>
+      <c r="H75" t="s">
+        <v>668</v>
+      </c>
+      <c r="I75" t="s">
+        <v>86</v>
+      </c>
+      <c r="J75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" t="s">
+        <v>289</v>
+      </c>
+      <c r="D76" t="s">
+        <v>357</v>
+      </c>
+      <c r="E76" t="s">
+        <v>454</v>
+      </c>
+      <c r="F76" t="s">
+        <v>593</v>
+      </c>
+      <c r="H76" t="s">
+        <v>669</v>
+      </c>
+      <c r="I76" t="s">
+        <v>86</v>
+      </c>
+      <c r="J76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" t="s">
+        <v>398</v>
+      </c>
+      <c r="E77" t="s">
+        <v>488</v>
+      </c>
+      <c r="F77" t="s">
+        <v>594</v>
+      </c>
+      <c r="H77" t="s">
+        <v>669</v>
+      </c>
+      <c r="I77" t="s">
+        <v>86</v>
+      </c>
+      <c r="J77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" t="s">
+        <v>291</v>
+      </c>
+      <c r="D78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E78" t="s">
+        <v>489</v>
+      </c>
+      <c r="F78" t="s">
+        <v>595</v>
+      </c>
+      <c r="H78" t="s">
+        <v>670</v>
+      </c>
+      <c r="I78" t="s">
+        <v>86</v>
+      </c>
+      <c r="J78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" t="s">
+        <v>292</v>
+      </c>
+      <c r="D79" t="s">
+        <v>400</v>
+      </c>
+      <c r="E79" t="s">
+        <v>490</v>
+      </c>
+      <c r="F79" t="s">
+        <v>596</v>
+      </c>
+      <c r="H79" t="s">
+        <v>670</v>
+      </c>
+      <c r="I79" t="s">
+        <v>86</v>
+      </c>
+      <c r="J79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" t="s">
+        <v>293</v>
+      </c>
+      <c r="D80" t="s">
+        <v>401</v>
+      </c>
+      <c r="E80" t="s">
+        <v>430</v>
+      </c>
+      <c r="F80" t="s">
+        <v>597</v>
+      </c>
+      <c r="H80" t="s">
+        <v>671</v>
+      </c>
+      <c r="I80" t="s">
+        <v>86</v>
+      </c>
+      <c r="J80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" t="s">
+        <v>294</v>
+      </c>
+      <c r="D81" t="s">
+        <v>402</v>
+      </c>
+      <c r="E81" t="s">
+        <v>491</v>
+      </c>
+      <c r="F81" t="s">
+        <v>598</v>
+      </c>
+      <c r="H81" t="s">
+        <v>671</v>
+      </c>
+      <c r="I81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" t="s">
+        <v>295</v>
+      </c>
+      <c r="D82" t="s">
+        <v>403</v>
+      </c>
+      <c r="E82" t="s">
+        <v>492</v>
+      </c>
+      <c r="F82" t="s">
+        <v>599</v>
+      </c>
+      <c r="H82" t="s">
+        <v>672</v>
+      </c>
+      <c r="I82" t="s">
+        <v>86</v>
+      </c>
+      <c r="J82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" t="s">
+        <v>404</v>
+      </c>
+      <c r="E83" t="s">
+        <v>493</v>
+      </c>
+      <c r="F83" t="s">
+        <v>600</v>
+      </c>
+      <c r="H83" t="s">
+        <v>672</v>
+      </c>
+      <c r="I83" t="s">
+        <v>86</v>
+      </c>
+      <c r="J83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" t="s">
+        <v>297</v>
+      </c>
+      <c r="D84" t="s">
+        <v>384</v>
+      </c>
+      <c r="E84" t="s">
+        <v>494</v>
+      </c>
+      <c r="F84" t="s">
+        <v>601</v>
+      </c>
+      <c r="H84" t="s">
+        <v>673</v>
+      </c>
+      <c r="I84" t="s">
+        <v>86</v>
+      </c>
+      <c r="J84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" t="s">
+        <v>298</v>
+      </c>
+      <c r="D85" t="s">
+        <v>405</v>
+      </c>
+      <c r="E85" t="s">
+        <v>495</v>
+      </c>
+      <c r="F85" t="s">
+        <v>602</v>
+      </c>
+      <c r="H85" t="s">
+        <v>673</v>
+      </c>
+      <c r="I85" t="s">
+        <v>86</v>
+      </c>
+      <c r="J85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" t="s">
+        <v>299</v>
+      </c>
+      <c r="D86" t="s">
+        <v>406</v>
+      </c>
+      <c r="E86" t="s">
+        <v>384</v>
+      </c>
+      <c r="F86" t="s">
+        <v>603</v>
+      </c>
+      <c r="H86" t="s">
+        <v>674</v>
+      </c>
+      <c r="I86" t="s">
+        <v>87</v>
+      </c>
+      <c r="J86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" t="s">
+        <v>300</v>
+      </c>
+      <c r="D87" t="s">
+        <v>407</v>
+      </c>
+      <c r="E87" t="s">
+        <v>385</v>
+      </c>
+      <c r="F87" t="s">
+        <v>604</v>
+      </c>
+      <c r="H87" t="s">
+        <v>675</v>
+      </c>
+      <c r="I87" t="s">
+        <v>87</v>
+      </c>
+      <c r="J87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" t="s">
+        <v>301</v>
+      </c>
+      <c r="D88" t="s">
+        <v>408</v>
+      </c>
+      <c r="E88" t="s">
+        <v>496</v>
+      </c>
+      <c r="F88" t="s">
+        <v>605</v>
+      </c>
+      <c r="H88" t="s">
+        <v>675</v>
+      </c>
+      <c r="I88" t="s">
+        <v>87</v>
+      </c>
+      <c r="J88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" t="s">
+        <v>302</v>
+      </c>
+      <c r="D89" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" t="s">
+        <v>497</v>
+      </c>
+      <c r="F89" t="s">
+        <v>606</v>
+      </c>
+      <c r="H89" t="s">
+        <v>676</v>
+      </c>
+      <c r="I89" t="s">
+        <v>87</v>
+      </c>
+      <c r="J89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90" t="s">
+        <v>409</v>
+      </c>
+      <c r="E90" t="s">
+        <v>498</v>
+      </c>
+      <c r="F90" t="s">
+        <v>607</v>
+      </c>
+      <c r="H90" t="s">
+        <v>676</v>
+      </c>
+      <c r="I90" t="s">
+        <v>87</v>
+      </c>
+      <c r="J90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" t="s">
+        <v>61</v>
+      </c>
+      <c r="E91" t="s">
+        <v>341</v>
+      </c>
+      <c r="F91" t="s">
+        <v>608</v>
+      </c>
+      <c r="H91" t="s">
+        <v>677</v>
+      </c>
+      <c r="I91" t="s">
+        <v>87</v>
+      </c>
+      <c r="J91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" t="s">
+        <v>305</v>
+      </c>
+      <c r="D92" t="s">
+        <v>410</v>
+      </c>
+      <c r="E92" t="s">
+        <v>499</v>
+      </c>
+      <c r="F92" t="s">
+        <v>609</v>
+      </c>
+      <c r="H92" t="s">
+        <v>677</v>
+      </c>
+      <c r="I92" t="s">
+        <v>87</v>
+      </c>
+      <c r="J92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" t="s">
+        <v>306</v>
+      </c>
+      <c r="D93" t="s">
+        <v>411</v>
+      </c>
+      <c r="E93" t="s">
+        <v>500</v>
+      </c>
+      <c r="F93" t="s">
+        <v>610</v>
+      </c>
+      <c r="H93" t="s">
+        <v>678</v>
+      </c>
+      <c r="I93" t="s">
+        <v>87</v>
+      </c>
+      <c r="J93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" t="s">
+        <v>307</v>
+      </c>
+      <c r="D94" t="s">
+        <v>412</v>
+      </c>
+      <c r="E94" t="s">
+        <v>501</v>
+      </c>
+      <c r="F94" t="s">
+        <v>611</v>
+      </c>
+      <c r="H94" t="s">
+        <v>678</v>
+      </c>
+      <c r="I94" t="s">
+        <v>87</v>
+      </c>
+      <c r="J94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" t="s">
+        <v>308</v>
+      </c>
+      <c r="D95" t="s">
+        <v>413</v>
+      </c>
+      <c r="E95" t="s">
+        <v>502</v>
+      </c>
+      <c r="F95" t="s">
+        <v>612</v>
+      </c>
+      <c r="H95" t="s">
+        <v>679</v>
+      </c>
+      <c r="I95" t="s">
+        <v>87</v>
+      </c>
+      <c r="J95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" t="s">
+        <v>309</v>
+      </c>
+      <c r="D96" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96" t="s">
+        <v>503</v>
+      </c>
+      <c r="F96" t="s">
+        <v>613</v>
+      </c>
+      <c r="H96" t="s">
+        <v>679</v>
+      </c>
+      <c r="I96" t="s">
+        <v>87</v>
+      </c>
+      <c r="J96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" t="s">
+        <v>310</v>
+      </c>
+      <c r="D97" t="s">
+        <v>414</v>
+      </c>
+      <c r="E97" t="s">
+        <v>420</v>
+      </c>
+      <c r="F97" t="s">
+        <v>614</v>
+      </c>
+      <c r="H97" t="s">
+        <v>680</v>
+      </c>
+      <c r="I97" t="s">
+        <v>87</v>
+      </c>
+      <c r="J97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" t="s">
+        <v>311</v>
+      </c>
+      <c r="D98" t="s">
+        <v>331</v>
+      </c>
+      <c r="E98" t="s">
+        <v>504</v>
+      </c>
+      <c r="F98" t="s">
+        <v>615</v>
+      </c>
+      <c r="H98" t="s">
+        <v>680</v>
+      </c>
+      <c r="I98" t="s">
+        <v>87</v>
+      </c>
+      <c r="J98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="s">
+        <v>312</v>
+      </c>
+      <c r="D99" t="s">
+        <v>415</v>
+      </c>
+      <c r="E99" t="s">
+        <v>505</v>
+      </c>
+      <c r="F99" t="s">
+        <v>616</v>
+      </c>
+      <c r="H99" t="s">
+        <v>681</v>
+      </c>
+      <c r="I99" t="s">
+        <v>87</v>
+      </c>
+      <c r="J99" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" t="s">
+        <v>313</v>
+      </c>
+      <c r="D100" t="s">
+        <v>416</v>
+      </c>
+      <c r="E100" t="s">
+        <v>506</v>
+      </c>
+      <c r="F100" t="s">
+        <v>617</v>
+      </c>
+      <c r="H100" t="s">
+        <v>681</v>
+      </c>
+      <c r="I100" t="s">
+        <v>87</v>
+      </c>
+      <c r="J100" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" t="s">
+        <v>314</v>
+      </c>
+      <c r="D101" t="s">
+        <v>417</v>
+      </c>
+      <c r="E101" t="s">
+        <v>507</v>
+      </c>
+      <c r="F101" t="s">
+        <v>618</v>
+      </c>
+      <c r="H101" t="s">
+        <v>682</v>
+      </c>
+      <c r="I101" t="s">
+        <v>87</v>
+      </c>
+      <c r="J101" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" t="s">
+        <v>315</v>
+      </c>
+      <c r="D102" t="s">
+        <v>340</v>
+      </c>
+      <c r="E102" t="s">
+        <v>424</v>
+      </c>
+      <c r="F102" t="s">
+        <v>619</v>
+      </c>
+      <c r="H102" t="s">
+        <v>682</v>
+      </c>
+      <c r="I102" t="s">
+        <v>87</v>
+      </c>
+      <c r="J102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" t="s">
+        <v>316</v>
+      </c>
+      <c r="D103" t="s">
+        <v>335</v>
+      </c>
+      <c r="E103" t="s">
+        <v>330</v>
+      </c>
+      <c r="F103" t="s">
+        <v>620</v>
+      </c>
+      <c r="H103" t="s">
+        <v>683</v>
+      </c>
+      <c r="I103" t="s">
+        <v>88</v>
+      </c>
+      <c r="J103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" t="s">
+        <v>317</v>
+      </c>
+      <c r="D104" t="s">
+        <v>418</v>
+      </c>
+      <c r="E104" t="s">
+        <v>508</v>
+      </c>
+      <c r="F104" t="s">
+        <v>621</v>
+      </c>
+      <c r="H104" t="s">
+        <v>683</v>
+      </c>
+      <c r="I104" t="s">
+        <v>88</v>
+      </c>
+      <c r="J104" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" t="s">
+        <v>318</v>
+      </c>
+      <c r="D105" t="s">
+        <v>419</v>
+      </c>
+      <c r="E105" t="s">
+        <v>509</v>
+      </c>
+      <c r="F105" t="s">
+        <v>622</v>
+      </c>
+      <c r="H105" t="s">
+        <v>684</v>
+      </c>
+      <c r="I105" t="s">
+        <v>88</v>
+      </c>
+      <c r="J105" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" t="s">
+        <v>319</v>
+      </c>
+      <c r="D106" t="s">
+        <v>420</v>
+      </c>
+      <c r="E106" t="s">
+        <v>510</v>
+      </c>
+      <c r="F106" t="s">
+        <v>623</v>
+      </c>
+      <c r="H106" t="s">
+        <v>684</v>
+      </c>
+      <c r="I106" t="s">
+        <v>88</v>
+      </c>
+      <c r="J106" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D107" t="s">
+        <v>421</v>
+      </c>
+      <c r="E107" t="s">
+        <v>511</v>
+      </c>
+      <c r="F107" t="s">
+        <v>624</v>
+      </c>
+      <c r="H107" t="s">
+        <v>685</v>
+      </c>
+      <c r="I107" t="s">
+        <v>88</v>
+      </c>
+      <c r="J107" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" t="s">
+        <v>321</v>
+      </c>
+      <c r="D108" t="s">
+        <v>422</v>
+      </c>
+      <c r="E108" t="s">
+        <v>512</v>
+      </c>
+      <c r="F108" t="s">
+        <v>625</v>
+      </c>
+      <c r="H108" t="s">
+        <v>685</v>
+      </c>
+      <c r="I108" t="s">
+        <v>88</v>
+      </c>
+      <c r="J108" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109" t="s">
+        <v>322</v>
+      </c>
+      <c r="D109" t="s">
+        <v>423</v>
+      </c>
+      <c r="E109" t="s">
+        <v>513</v>
+      </c>
+      <c r="F109" t="s">
+        <v>626</v>
+      </c>
+      <c r="H109" t="s">
+        <v>686</v>
+      </c>
+      <c r="I109" t="s">
+        <v>88</v>
+      </c>
+      <c r="J109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" t="s">
+        <v>323</v>
+      </c>
+      <c r="D110" t="s">
+        <v>424</v>
+      </c>
+      <c r="E110" t="s">
+        <v>514</v>
+      </c>
+      <c r="F110" t="s">
+        <v>627</v>
+      </c>
+      <c r="H110" t="s">
+        <v>686</v>
+      </c>
+      <c r="I110" t="s">
+        <v>88</v>
+      </c>
+      <c r="J110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" t="s">
+        <v>324</v>
+      </c>
+      <c r="D111" t="s">
+        <v>425</v>
+      </c>
+      <c r="E111" t="s">
+        <v>515</v>
+      </c>
+      <c r="F111" t="s">
+        <v>628</v>
+      </c>
+      <c r="H111" t="s">
+        <v>687</v>
+      </c>
+      <c r="I111" t="s">
+        <v>88</v>
+      </c>
+      <c r="J111" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" t="s">
+        <v>212</v>
+      </c>
+      <c r="C112" t="s">
+        <v>325</v>
+      </c>
+      <c r="D112" t="s">
+        <v>426</v>
+      </c>
+      <c r="E112" t="s">
+        <v>516</v>
+      </c>
+      <c r="F112" t="s">
+        <v>629</v>
+      </c>
+      <c r="H112" t="s">
+        <v>687</v>
+      </c>
+      <c r="I112" t="s">
+        <v>88</v>
+      </c>
+      <c r="J112" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" t="s">
+        <v>213</v>
+      </c>
+      <c r="C113" t="s">
+        <v>326</v>
+      </c>
+      <c r="D113" t="s">
+        <v>427</v>
+      </c>
+      <c r="E113" t="s">
+        <v>517</v>
+      </c>
+      <c r="F113" t="s">
+        <v>630</v>
+      </c>
+      <c r="H113" t="s">
+        <v>688</v>
+      </c>
+      <c r="I113" t="s">
+        <v>88</v>
+      </c>
+      <c r="J113" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" t="s">
+        <v>327</v>
+      </c>
+      <c r="D114" t="s">
+        <v>428</v>
+      </c>
+      <c r="E114" t="s">
+        <v>518</v>
+      </c>
+      <c r="F114" t="s">
+        <v>631</v>
+      </c>
+      <c r="H114" t="s">
+        <v>688</v>
+      </c>
+      <c r="I114" t="s">
+        <v>88</v>
+      </c>
+      <c r="J114" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +5854,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1395,22 +5874,22 @@
         <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>689</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>690</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>691</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>692</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>693</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1430,7 +5909,7 @@
         <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1439,10 +5918,10 @@
         <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1462,7 +5941,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1471,10 +5950,10 @@
         <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1494,7 +5973,7 @@
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1503,10 +5982,10 @@
         <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1526,7 +6005,7 @@
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1535,10 +6014,10 @@
         <v>90</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1558,7 +6037,7 @@
         <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1567,10 +6046,10 @@
         <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J6" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1590,7 +6069,7 @@
         <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -1599,10 +6078,10 @@
         <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1622,7 +6101,7 @@
         <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -1631,10 +6110,10 @@
         <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J8" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1654,7 +6133,7 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -1663,10 +6142,10 @@
         <v>92</v>
       </c>
       <c r="I9" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J9" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1686,7 +6165,7 @@
         <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -1695,10 +6174,10 @@
         <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J10" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1718,7 +6197,7 @@
         <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
@@ -1727,10 +6206,10 @@
         <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1750,7 +6229,7 @@
         <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -1759,10 +6238,10 @@
         <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1782,7 +6261,7 @@
         <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
@@ -1791,10 +6270,10 @@
         <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1814,7 +6293,7 @@
         <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
@@ -1823,10 +6302,10 @@
         <v>95</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1846,7 +6325,7 @@
         <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
@@ -1855,10 +6334,10 @@
         <v>95</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>695</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1866,31 +6345,31 @@
         <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>328</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>429</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>519</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>632</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1898,31 +6377,31 @@
         <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>329</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>430</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>520</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>632</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1930,31 +6409,31 @@
         <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>431</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>521</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>633</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J18" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1962,31 +6441,31 @@
         <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>331</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>522</v>
       </c>
       <c r="E19" t="s">
-        <v>130</v>
+        <v>633</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J19" t="s">
-        <v>139</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1994,31 +6473,3487 @@
         <v>106</v>
       </c>
       <c r="B20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" t="s">
+        <v>432</v>
+      </c>
+      <c r="D20" t="s">
+        <v>523</v>
+      </c>
+      <c r="E20" t="s">
+        <v>634</v>
+      </c>
+      <c r="F20" t="s">
+        <v>696</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" t="s">
+        <v>696</v>
+      </c>
+      <c r="J20" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D21" t="s">
+        <v>524</v>
+      </c>
+      <c r="E21" t="s">
+        <v>634</v>
+      </c>
+      <c r="F21" t="s">
+        <v>696</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" t="s">
+        <v>696</v>
+      </c>
+      <c r="J21" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" t="s">
+        <v>434</v>
+      </c>
+      <c r="D22" t="s">
+        <v>525</v>
+      </c>
+      <c r="E22" t="s">
+        <v>635</v>
+      </c>
+      <c r="F22" t="s">
+        <v>696</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" t="s">
+        <v>696</v>
+      </c>
+      <c r="J22" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" t="s">
+        <v>526</v>
+      </c>
+      <c r="E23" t="s">
+        <v>635</v>
+      </c>
+      <c r="F23" t="s">
+        <v>696</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" t="s">
+        <v>696</v>
+      </c>
+      <c r="J23" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C24" t="s">
+        <v>436</v>
+      </c>
+      <c r="D24" t="s">
+        <v>527</v>
+      </c>
+      <c r="E24" t="s">
+        <v>636</v>
+      </c>
+      <c r="F24" t="s">
+        <v>696</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" t="s">
+        <v>696</v>
+      </c>
+      <c r="J24" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>336</v>
+      </c>
+      <c r="C25" t="s">
+        <v>437</v>
+      </c>
+      <c r="D25" t="s">
+        <v>528</v>
+      </c>
+      <c r="E25" t="s">
+        <v>636</v>
+      </c>
+      <c r="F25" t="s">
+        <v>696</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" t="s">
+        <v>696</v>
+      </c>
+      <c r="J25" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" t="s">
+        <v>438</v>
+      </c>
+      <c r="D26" t="s">
+        <v>529</v>
+      </c>
+      <c r="E26" t="s">
+        <v>637</v>
+      </c>
+      <c r="F26" t="s">
+        <v>696</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" t="s">
+        <v>696</v>
+      </c>
+      <c r="J26" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" t="s">
+        <v>439</v>
+      </c>
+      <c r="D27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E27" t="s">
+        <v>637</v>
+      </c>
+      <c r="F27" t="s">
+        <v>696</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" t="s">
+        <v>696</v>
+      </c>
+      <c r="J27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>339</v>
+      </c>
+      <c r="C28" t="s">
+        <v>440</v>
+      </c>
+      <c r="D28" t="s">
+        <v>531</v>
+      </c>
+      <c r="E28" t="s">
+        <v>638</v>
+      </c>
+      <c r="F28" t="s">
+        <v>696</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" t="s">
+        <v>696</v>
+      </c>
+      <c r="J28" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C29" t="s">
+        <v>441</v>
+      </c>
+      <c r="D29" t="s">
+        <v>532</v>
+      </c>
+      <c r="E29" t="s">
+        <v>638</v>
+      </c>
+      <c r="F29" t="s">
+        <v>696</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" t="s">
+        <v>696</v>
+      </c>
+      <c r="J29" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
         <v>116</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B30" t="s">
+        <v>341</v>
+      </c>
+      <c r="C30" t="s">
+        <v>442</v>
+      </c>
+      <c r="D30" t="s">
+        <v>533</v>
+      </c>
+      <c r="E30" t="s">
+        <v>639</v>
+      </c>
+      <c r="F30" t="s">
+        <v>696</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" t="s">
+        <v>696</v>
+      </c>
+      <c r="J30" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>342</v>
+      </c>
+      <c r="C31" t="s">
+        <v>355</v>
+      </c>
+      <c r="D31" t="s">
+        <v>534</v>
+      </c>
+      <c r="E31" t="s">
+        <v>639</v>
+      </c>
+      <c r="F31" t="s">
+        <v>696</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" t="s">
+        <v>696</v>
+      </c>
+      <c r="J31" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" t="s">
+        <v>443</v>
+      </c>
+      <c r="D32" t="s">
+        <v>535</v>
+      </c>
+      <c r="E32" t="s">
+        <v>640</v>
+      </c>
+      <c r="F32" t="s">
+        <v>696</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" t="s">
+        <v>696</v>
+      </c>
+      <c r="J32" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D33" t="s">
+        <v>536</v>
+      </c>
+      <c r="E33" t="s">
+        <v>640</v>
+      </c>
+      <c r="F33" t="s">
+        <v>696</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" t="s">
+        <v>696</v>
+      </c>
+      <c r="J33" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C34" t="s">
+        <v>444</v>
+      </c>
+      <c r="D34" t="s">
+        <v>537</v>
+      </c>
+      <c r="E34" t="s">
+        <v>641</v>
+      </c>
+      <c r="F34" t="s">
+        <v>696</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" t="s">
+        <v>696</v>
+      </c>
+      <c r="J34" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
         <v>121</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C35" t="s">
+        <v>424</v>
+      </c>
+      <c r="D35" t="s">
+        <v>538</v>
+      </c>
+      <c r="E35" t="s">
+        <v>641</v>
+      </c>
+      <c r="F35" t="s">
+        <v>696</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" t="s">
+        <v>696</v>
+      </c>
+      <c r="J35" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s">
+        <v>347</v>
+      </c>
+      <c r="C36" t="s">
+        <v>445</v>
+      </c>
+      <c r="D36" t="s">
+        <v>539</v>
+      </c>
+      <c r="E36" t="s">
+        <v>642</v>
+      </c>
+      <c r="F36" t="s">
+        <v>696</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" t="s">
+        <v>696</v>
+      </c>
+      <c r="J36" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" t="s">
+        <v>345</v>
+      </c>
+      <c r="D37" t="s">
+        <v>540</v>
+      </c>
+      <c r="E37" t="s">
+        <v>642</v>
+      </c>
+      <c r="F37" t="s">
+        <v>696</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" t="s">
+        <v>696</v>
+      </c>
+      <c r="J37" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C38" t="s">
+        <v>446</v>
+      </c>
+      <c r="D38" t="s">
+        <v>541</v>
+      </c>
+      <c r="E38" t="s">
+        <v>643</v>
+      </c>
+      <c r="F38" t="s">
+        <v>696</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" t="s">
+        <v>696</v>
+      </c>
+      <c r="J38" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" t="s">
+        <v>447</v>
+      </c>
+      <c r="D39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E39" t="s">
+        <v>643</v>
+      </c>
+      <c r="F39" t="s">
+        <v>696</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" t="s">
+        <v>696</v>
+      </c>
+      <c r="J39" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
         <v>126</v>
       </c>
-      <c r="E20" t="s">
+      <c r="B40" t="s">
+        <v>351</v>
+      </c>
+      <c r="C40" t="s">
+        <v>448</v>
+      </c>
+      <c r="D40" t="s">
+        <v>543</v>
+      </c>
+      <c r="E40" t="s">
+        <v>644</v>
+      </c>
+      <c r="F40" t="s">
+        <v>696</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I40" t="s">
+        <v>696</v>
+      </c>
+      <c r="J40" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" t="s">
+        <v>449</v>
+      </c>
+      <c r="D41" t="s">
+        <v>544</v>
+      </c>
+      <c r="E41" t="s">
+        <v>644</v>
+      </c>
+      <c r="F41" t="s">
+        <v>696</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" t="s">
+        <v>696</v>
+      </c>
+      <c r="J41" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="s">
+        <v>353</v>
+      </c>
+      <c r="C42" t="s">
+        <v>450</v>
+      </c>
+      <c r="D42" t="s">
+        <v>545</v>
+      </c>
+      <c r="E42" t="s">
+        <v>645</v>
+      </c>
+      <c r="F42" t="s">
+        <v>696</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" t="s">
+        <v>696</v>
+      </c>
+      <c r="J42" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" t="s">
+        <v>354</v>
+      </c>
+      <c r="C43" t="s">
+        <v>451</v>
+      </c>
+      <c r="D43" t="s">
+        <v>546</v>
+      </c>
+      <c r="E43" t="s">
+        <v>645</v>
+      </c>
+      <c r="F43" t="s">
+        <v>696</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" t="s">
+        <v>696</v>
+      </c>
+      <c r="J43" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>355</v>
+      </c>
+      <c r="C44" t="s">
+        <v>452</v>
+      </c>
+      <c r="D44" t="s">
+        <v>547</v>
+      </c>
+      <c r="E44" t="s">
+        <v>646</v>
+      </c>
+      <c r="F44" t="s">
+        <v>696</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" t="s">
+        <v>696</v>
+      </c>
+      <c r="J44" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
         <v>131</v>
       </c>
-      <c r="F20" t="s">
+      <c r="B45" t="s">
+        <v>356</v>
+      </c>
+      <c r="C45" t="s">
+        <v>453</v>
+      </c>
+      <c r="D45" t="s">
+        <v>548</v>
+      </c>
+      <c r="E45" t="s">
+        <v>646</v>
+      </c>
+      <c r="F45" t="s">
+        <v>696</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" t="s">
+        <v>696</v>
+      </c>
+      <c r="J45" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
+        <v>357</v>
+      </c>
+      <c r="C46" t="s">
+        <v>454</v>
+      </c>
+      <c r="D46" t="s">
+        <v>549</v>
+      </c>
+      <c r="E46" t="s">
+        <v>647</v>
+      </c>
+      <c r="F46" t="s">
+        <v>696</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" t="s">
+        <v>696</v>
+      </c>
+      <c r="J46" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
+        <v>358</v>
+      </c>
+      <c r="C47" t="s">
+        <v>455</v>
+      </c>
+      <c r="D47" t="s">
+        <v>550</v>
+      </c>
+      <c r="E47" t="s">
+        <v>647</v>
+      </c>
+      <c r="F47" t="s">
+        <v>696</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" t="s">
+        <v>696</v>
+      </c>
+      <c r="J47" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>359</v>
+      </c>
+      <c r="C48" t="s">
+        <v>456</v>
+      </c>
+      <c r="D48" t="s">
+        <v>551</v>
+      </c>
+      <c r="E48" t="s">
+        <v>648</v>
+      </c>
+      <c r="F48" t="s">
+        <v>696</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" t="s">
+        <v>696</v>
+      </c>
+      <c r="J48" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" t="s">
+        <v>457</v>
+      </c>
+      <c r="D49" t="s">
+        <v>552</v>
+      </c>
+      <c r="E49" t="s">
+        <v>648</v>
+      </c>
+      <c r="F49" t="s">
+        <v>696</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49" t="s">
+        <v>696</v>
+      </c>
+      <c r="J49" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50" t="s">
+        <v>458</v>
+      </c>
+      <c r="D50" t="s">
+        <v>553</v>
+      </c>
+      <c r="E50" t="s">
+        <v>649</v>
+      </c>
+      <c r="F50" t="s">
+        <v>696</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" t="s">
+        <v>696</v>
+      </c>
+      <c r="J50" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s">
+        <v>361</v>
+      </c>
+      <c r="C51" t="s">
+        <v>459</v>
+      </c>
+      <c r="D51" t="s">
+        <v>554</v>
+      </c>
+      <c r="E51" t="s">
+        <v>649</v>
+      </c>
+      <c r="F51" t="s">
+        <v>696</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" t="s">
+        <v>696</v>
+      </c>
+      <c r="J51" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" t="s">
+        <v>362</v>
+      </c>
+      <c r="C52" t="s">
+        <v>460</v>
+      </c>
+      <c r="D52" t="s">
+        <v>555</v>
+      </c>
+      <c r="E52" t="s">
+        <v>650</v>
+      </c>
+      <c r="F52" t="s">
+        <v>696</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" t="s">
+        <v>696</v>
+      </c>
+      <c r="J52" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
         <v>139</v>
       </c>
-      <c r="G20" t="s">
+      <c r="B53" t="s">
+        <v>363</v>
+      </c>
+      <c r="C53" t="s">
+        <v>401</v>
+      </c>
+      <c r="D53" t="s">
+        <v>556</v>
+      </c>
+      <c r="E53" t="s">
+        <v>650</v>
+      </c>
+      <c r="F53" t="s">
+        <v>696</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" t="s">
+        <v>696</v>
+      </c>
+      <c r="J53" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" t="s">
+        <v>364</v>
+      </c>
+      <c r="C54" t="s">
+        <v>461</v>
+      </c>
+      <c r="D54" t="s">
+        <v>557</v>
+      </c>
+      <c r="E54" t="s">
+        <v>651</v>
+      </c>
+      <c r="F54" t="s">
+        <v>696</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" t="s">
+        <v>696</v>
+      </c>
+      <c r="J54" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" t="s">
+        <v>365</v>
+      </c>
+      <c r="C55" t="s">
+        <v>462</v>
+      </c>
+      <c r="D55" t="s">
+        <v>558</v>
+      </c>
+      <c r="E55" t="s">
+        <v>651</v>
+      </c>
+      <c r="F55" t="s">
+        <v>696</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" t="s">
+        <v>696</v>
+      </c>
+      <c r="J55" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" t="s">
+        <v>366</v>
+      </c>
+      <c r="C56" t="s">
+        <v>430</v>
+      </c>
+      <c r="D56" t="s">
+        <v>559</v>
+      </c>
+      <c r="E56" t="s">
+        <v>652</v>
+      </c>
+      <c r="F56" t="s">
+        <v>696</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" t="s">
+        <v>696</v>
+      </c>
+      <c r="J56" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
+        <v>367</v>
+      </c>
+      <c r="C57" t="s">
+        <v>463</v>
+      </c>
+      <c r="D57" t="s">
+        <v>560</v>
+      </c>
+      <c r="E57" t="s">
+        <v>652</v>
+      </c>
+      <c r="F57" t="s">
+        <v>696</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" t="s">
+        <v>696</v>
+      </c>
+      <c r="J57" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" t="s">
+        <v>368</v>
+      </c>
+      <c r="C58" t="s">
+        <v>330</v>
+      </c>
+      <c r="D58" t="s">
+        <v>561</v>
+      </c>
+      <c r="E58" t="s">
+        <v>653</v>
+      </c>
+      <c r="F58" t="s">
+        <v>696</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" t="s">
+        <v>696</v>
+      </c>
+      <c r="J58" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" t="s">
+        <v>341</v>
+      </c>
+      <c r="C59" t="s">
+        <v>464</v>
+      </c>
+      <c r="D59" t="s">
+        <v>562</v>
+      </c>
+      <c r="E59" t="s">
+        <v>653</v>
+      </c>
+      <c r="F59" t="s">
+        <v>696</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>91</v>
+      </c>
+      <c r="I59" t="s">
+        <v>696</v>
+      </c>
+      <c r="J59" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" t="s">
+        <v>369</v>
+      </c>
+      <c r="C60" t="s">
+        <v>441</v>
+      </c>
+      <c r="D60" t="s">
+        <v>563</v>
+      </c>
+      <c r="E60" t="s">
+        <v>654</v>
+      </c>
+      <c r="F60" t="s">
+        <v>696</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60" t="s">
+        <v>696</v>
+      </c>
+      <c r="J60" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" t="s">
+        <v>370</v>
+      </c>
+      <c r="C61" t="s">
+        <v>465</v>
+      </c>
+      <c r="D61" t="s">
+        <v>564</v>
+      </c>
+      <c r="E61" t="s">
+        <v>654</v>
+      </c>
+      <c r="F61" t="s">
+        <v>696</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>91</v>
+      </c>
+      <c r="I61" t="s">
+        <v>696</v>
+      </c>
+      <c r="J61" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" t="s">
+        <v>371</v>
+      </c>
+      <c r="C62" t="s">
+        <v>466</v>
+      </c>
+      <c r="D62" t="s">
+        <v>565</v>
+      </c>
+      <c r="E62" t="s">
+        <v>655</v>
+      </c>
+      <c r="F62" t="s">
+        <v>696</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" t="s">
+        <v>696</v>
+      </c>
+      <c r="J62" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" t="s">
+        <v>372</v>
+      </c>
+      <c r="C63" t="s">
+        <v>467</v>
+      </c>
+      <c r="D63" t="s">
+        <v>566</v>
+      </c>
+      <c r="E63" t="s">
+        <v>655</v>
+      </c>
+      <c r="F63" t="s">
+        <v>696</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>91</v>
+      </c>
+      <c r="I63" t="s">
+        <v>696</v>
+      </c>
+      <c r="J63" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C64" t="s">
+        <v>433</v>
+      </c>
+      <c r="D64" t="s">
+        <v>567</v>
+      </c>
+      <c r="E64" t="s">
+        <v>656</v>
+      </c>
+      <c r="F64" t="s">
+        <v>696</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>91</v>
+      </c>
+      <c r="I64" t="s">
+        <v>696</v>
+      </c>
+      <c r="J64" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" t="s">
+        <v>332</v>
+      </c>
+      <c r="C65" t="s">
+        <v>468</v>
+      </c>
+      <c r="D65" t="s">
+        <v>568</v>
+      </c>
+      <c r="E65" t="s">
+        <v>656</v>
+      </c>
+      <c r="F65" t="s">
+        <v>696</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" t="s">
+        <v>696</v>
+      </c>
+      <c r="J65" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" t="s">
+        <v>374</v>
+      </c>
+      <c r="C66" t="s">
+        <v>469</v>
+      </c>
+      <c r="D66" t="s">
+        <v>569</v>
+      </c>
+      <c r="E66" t="s">
+        <v>657</v>
+      </c>
+      <c r="F66" t="s">
+        <v>696</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>92</v>
+      </c>
+      <c r="I66" t="s">
+        <v>696</v>
+      </c>
+      <c r="J66" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" t="s">
+        <v>375</v>
+      </c>
+      <c r="C67" t="s">
+        <v>470</v>
+      </c>
+      <c r="D67" t="s">
+        <v>570</v>
+      </c>
+      <c r="E67" t="s">
+        <v>657</v>
+      </c>
+      <c r="F67" t="s">
+        <v>696</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" t="s">
+        <v>696</v>
+      </c>
+      <c r="J67" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" t="s">
+        <v>376</v>
+      </c>
+      <c r="C68" t="s">
+        <v>426</v>
+      </c>
+      <c r="D68" t="s">
+        <v>571</v>
+      </c>
+      <c r="E68" t="s">
+        <v>658</v>
+      </c>
+      <c r="F68" t="s">
+        <v>696</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
+        <v>92</v>
+      </c>
+      <c r="I68" t="s">
+        <v>696</v>
+      </c>
+      <c r="J68" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" t="s">
+        <v>377</v>
+      </c>
+      <c r="C69" t="s">
+        <v>471</v>
+      </c>
+      <c r="D69" t="s">
+        <v>572</v>
+      </c>
+      <c r="E69" t="s">
+        <v>658</v>
+      </c>
+      <c r="F69" t="s">
+        <v>696</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>92</v>
+      </c>
+      <c r="I69" t="s">
+        <v>696</v>
+      </c>
+      <c r="J69" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" t="s">
+        <v>378</v>
+      </c>
+      <c r="C70" t="s">
+        <v>472</v>
+      </c>
+      <c r="D70" t="s">
+        <v>573</v>
+      </c>
+      <c r="E70" t="s">
+        <v>659</v>
+      </c>
+      <c r="F70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
+        <v>92</v>
+      </c>
+      <c r="I70" t="s">
+        <v>696</v>
+      </c>
+      <c r="J70" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>379</v>
+      </c>
+      <c r="C71" t="s">
+        <v>473</v>
+      </c>
+      <c r="D71" t="s">
+        <v>574</v>
+      </c>
+      <c r="E71" t="s">
+        <v>659</v>
+      </c>
+      <c r="F71" t="s">
+        <v>696</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I71" t="s">
+        <v>696</v>
+      </c>
+      <c r="J71" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" t="s">
+        <v>380</v>
+      </c>
+      <c r="C72" t="s">
+        <v>449</v>
+      </c>
+      <c r="D72" t="s">
+        <v>575</v>
+      </c>
+      <c r="E72" t="s">
+        <v>660</v>
+      </c>
+      <c r="F72" t="s">
+        <v>696</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
+        <v>92</v>
+      </c>
+      <c r="I72" t="s">
+        <v>696</v>
+      </c>
+      <c r="J72" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>381</v>
+      </c>
+      <c r="C73" t="s">
+        <v>430</v>
+      </c>
+      <c r="D73" t="s">
+        <v>576</v>
+      </c>
+      <c r="E73" t="s">
+        <v>660</v>
+      </c>
+      <c r="F73" t="s">
+        <v>696</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s">
+        <v>92</v>
+      </c>
+      <c r="I73" t="s">
+        <v>696</v>
+      </c>
+      <c r="J73" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" t="s">
+        <v>382</v>
+      </c>
+      <c r="C74" t="s">
+        <v>474</v>
+      </c>
+      <c r="D74" t="s">
+        <v>577</v>
+      </c>
+      <c r="E74" t="s">
+        <v>661</v>
+      </c>
+      <c r="F74" t="s">
+        <v>696</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
+        <v>92</v>
+      </c>
+      <c r="I74" t="s">
+        <v>696</v>
+      </c>
+      <c r="J74" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" t="s">
+        <v>383</v>
+      </c>
+      <c r="C75" t="s">
+        <v>475</v>
+      </c>
+      <c r="D75" t="s">
+        <v>578</v>
+      </c>
+      <c r="E75" t="s">
+        <v>661</v>
+      </c>
+      <c r="F75" t="s">
+        <v>696</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
+        <v>92</v>
+      </c>
+      <c r="I75" t="s">
+        <v>696</v>
+      </c>
+      <c r="J75" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" t="s">
+        <v>384</v>
+      </c>
+      <c r="C76" t="s">
+        <v>476</v>
+      </c>
+      <c r="D76" t="s">
+        <v>579</v>
+      </c>
+      <c r="E76" t="s">
+        <v>662</v>
+      </c>
+      <c r="F76" t="s">
+        <v>696</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s">
+        <v>92</v>
+      </c>
+      <c r="I76" t="s">
+        <v>696</v>
+      </c>
+      <c r="J76" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>385</v>
+      </c>
+      <c r="C77" t="s">
+        <v>477</v>
+      </c>
+      <c r="D77" t="s">
+        <v>580</v>
+      </c>
+      <c r="E77" t="s">
+        <v>662</v>
+      </c>
+      <c r="F77" t="s">
+        <v>696</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
+        <v>92</v>
+      </c>
+      <c r="I77" t="s">
+        <v>696</v>
+      </c>
+      <c r="J77" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" t="s">
+        <v>386</v>
+      </c>
+      <c r="C78" t="s">
+        <v>478</v>
+      </c>
+      <c r="D78" t="s">
+        <v>581</v>
+      </c>
+      <c r="E78" t="s">
+        <v>663</v>
+      </c>
+      <c r="F78" t="s">
+        <v>696</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>92</v>
+      </c>
+      <c r="I78" t="s">
+        <v>696</v>
+      </c>
+      <c r="J78" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" t="s">
+        <v>387</v>
+      </c>
+      <c r="C79" t="s">
+        <v>479</v>
+      </c>
+      <c r="D79" t="s">
+        <v>582</v>
+      </c>
+      <c r="E79" t="s">
+        <v>663</v>
+      </c>
+      <c r="F79" t="s">
+        <v>696</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
+        <v>92</v>
+      </c>
+      <c r="I79" t="s">
+        <v>696</v>
+      </c>
+      <c r="J79" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" t="s">
+        <v>388</v>
+      </c>
+      <c r="C80" t="s">
+        <v>423</v>
+      </c>
+      <c r="D80" t="s">
+        <v>583</v>
+      </c>
+      <c r="E80" t="s">
+        <v>664</v>
+      </c>
+      <c r="F80" t="s">
+        <v>696</v>
+      </c>
+      <c r="G80" t="s">
         <v>18</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H80" t="s">
         <v>93</v>
       </c>
-      <c r="I20" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" t="s">
-        <v>139</v>
+      <c r="I80" t="s">
+        <v>696</v>
+      </c>
+      <c r="J80" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>389</v>
+      </c>
+      <c r="C81" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" t="s">
+        <v>584</v>
+      </c>
+      <c r="E81" t="s">
+        <v>664</v>
+      </c>
+      <c r="F81" t="s">
+        <v>696</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" t="s">
+        <v>93</v>
+      </c>
+      <c r="I81" t="s">
+        <v>696</v>
+      </c>
+      <c r="J81" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" t="s">
+        <v>390</v>
+      </c>
+      <c r="C82" t="s">
+        <v>480</v>
+      </c>
+      <c r="D82" t="s">
+        <v>585</v>
+      </c>
+      <c r="E82" t="s">
+        <v>665</v>
+      </c>
+      <c r="F82" t="s">
+        <v>696</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" t="s">
+        <v>93</v>
+      </c>
+      <c r="I82" t="s">
+        <v>696</v>
+      </c>
+      <c r="J82" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" t="s">
+        <v>391</v>
+      </c>
+      <c r="C83" t="s">
+        <v>481</v>
+      </c>
+      <c r="D83" t="s">
+        <v>586</v>
+      </c>
+      <c r="E83" t="s">
+        <v>665</v>
+      </c>
+      <c r="F83" t="s">
+        <v>696</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" t="s">
+        <v>93</v>
+      </c>
+      <c r="I83" t="s">
+        <v>696</v>
+      </c>
+      <c r="J83" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" t="s">
+        <v>392</v>
+      </c>
+      <c r="C84" t="s">
+        <v>482</v>
+      </c>
+      <c r="D84" t="s">
+        <v>587</v>
+      </c>
+      <c r="E84" t="s">
+        <v>666</v>
+      </c>
+      <c r="F84" t="s">
+        <v>696</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" t="s">
+        <v>93</v>
+      </c>
+      <c r="I84" t="s">
+        <v>696</v>
+      </c>
+      <c r="J84" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>393</v>
+      </c>
+      <c r="C85" t="s">
+        <v>483</v>
+      </c>
+      <c r="D85" t="s">
+        <v>588</v>
+      </c>
+      <c r="E85" t="s">
+        <v>666</v>
+      </c>
+      <c r="F85" t="s">
+        <v>696</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" t="s">
+        <v>93</v>
+      </c>
+      <c r="I85" t="s">
+        <v>696</v>
+      </c>
+      <c r="J85" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>394</v>
+      </c>
+      <c r="C86" t="s">
+        <v>484</v>
+      </c>
+      <c r="D86" t="s">
+        <v>589</v>
+      </c>
+      <c r="E86" t="s">
+        <v>667</v>
+      </c>
+      <c r="F86" t="s">
+        <v>696</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" t="s">
+        <v>93</v>
+      </c>
+      <c r="I86" t="s">
+        <v>696</v>
+      </c>
+      <c r="J86" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" t="s">
+        <v>395</v>
+      </c>
+      <c r="C87" t="s">
+        <v>485</v>
+      </c>
+      <c r="D87" t="s">
+        <v>590</v>
+      </c>
+      <c r="E87" t="s">
+        <v>667</v>
+      </c>
+      <c r="F87" t="s">
+        <v>696</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" t="s">
+        <v>93</v>
+      </c>
+      <c r="I87" t="s">
+        <v>696</v>
+      </c>
+      <c r="J87" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>396</v>
+      </c>
+      <c r="C88" t="s">
+        <v>486</v>
+      </c>
+      <c r="D88" t="s">
+        <v>591</v>
+      </c>
+      <c r="E88" t="s">
+        <v>668</v>
+      </c>
+      <c r="F88" t="s">
+        <v>696</v>
+      </c>
+      <c r="G88" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" t="s">
+        <v>93</v>
+      </c>
+      <c r="I88" t="s">
+        <v>696</v>
+      </c>
+      <c r="J88" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
+        <v>397</v>
+      </c>
+      <c r="C89" t="s">
+        <v>487</v>
+      </c>
+      <c r="D89" t="s">
+        <v>592</v>
+      </c>
+      <c r="E89" t="s">
+        <v>668</v>
+      </c>
+      <c r="F89" t="s">
+        <v>696</v>
+      </c>
+      <c r="G89" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" t="s">
+        <v>93</v>
+      </c>
+      <c r="I89" t="s">
+        <v>696</v>
+      </c>
+      <c r="J89" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" t="s">
+        <v>357</v>
+      </c>
+      <c r="C90" t="s">
+        <v>454</v>
+      </c>
+      <c r="D90" t="s">
+        <v>593</v>
+      </c>
+      <c r="E90" t="s">
+        <v>669</v>
+      </c>
+      <c r="F90" t="s">
+        <v>696</v>
+      </c>
+      <c r="G90" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" t="s">
+        <v>93</v>
+      </c>
+      <c r="I90" t="s">
+        <v>696</v>
+      </c>
+      <c r="J90" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" t="s">
+        <v>398</v>
+      </c>
+      <c r="C91" t="s">
+        <v>488</v>
+      </c>
+      <c r="D91" t="s">
+        <v>594</v>
+      </c>
+      <c r="E91" t="s">
+        <v>669</v>
+      </c>
+      <c r="F91" t="s">
+        <v>696</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" t="s">
+        <v>93</v>
+      </c>
+      <c r="I91" t="s">
+        <v>696</v>
+      </c>
+      <c r="J91" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" t="s">
+        <v>399</v>
+      </c>
+      <c r="C92" t="s">
+        <v>489</v>
+      </c>
+      <c r="D92" t="s">
+        <v>595</v>
+      </c>
+      <c r="E92" t="s">
+        <v>670</v>
+      </c>
+      <c r="F92" t="s">
+        <v>696</v>
+      </c>
+      <c r="G92" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" t="s">
+        <v>93</v>
+      </c>
+      <c r="I92" t="s">
+        <v>696</v>
+      </c>
+      <c r="J92" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" t="s">
+        <v>400</v>
+      </c>
+      <c r="C93" t="s">
+        <v>490</v>
+      </c>
+      <c r="D93" t="s">
+        <v>596</v>
+      </c>
+      <c r="E93" t="s">
+        <v>670</v>
+      </c>
+      <c r="F93" t="s">
+        <v>696</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" t="s">
+        <v>93</v>
+      </c>
+      <c r="I93" t="s">
+        <v>696</v>
+      </c>
+      <c r="J93" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" t="s">
+        <v>401</v>
+      </c>
+      <c r="C94" t="s">
+        <v>430</v>
+      </c>
+      <c r="D94" t="s">
+        <v>597</v>
+      </c>
+      <c r="E94" t="s">
+        <v>671</v>
+      </c>
+      <c r="F94" t="s">
+        <v>696</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" t="s">
+        <v>93</v>
+      </c>
+      <c r="I94" t="s">
+        <v>696</v>
+      </c>
+      <c r="J94" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" t="s">
+        <v>402</v>
+      </c>
+      <c r="C95" t="s">
+        <v>491</v>
+      </c>
+      <c r="D95" t="s">
+        <v>598</v>
+      </c>
+      <c r="E95" t="s">
+        <v>671</v>
+      </c>
+      <c r="F95" t="s">
+        <v>696</v>
+      </c>
+      <c r="G95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" t="s">
+        <v>93</v>
+      </c>
+      <c r="I95" t="s">
+        <v>696</v>
+      </c>
+      <c r="J95" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" t="s">
+        <v>403</v>
+      </c>
+      <c r="C96" t="s">
+        <v>492</v>
+      </c>
+      <c r="D96" t="s">
+        <v>599</v>
+      </c>
+      <c r="E96" t="s">
+        <v>672</v>
+      </c>
+      <c r="F96" t="s">
+        <v>696</v>
+      </c>
+      <c r="G96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" t="s">
+        <v>93</v>
+      </c>
+      <c r="I96" t="s">
+        <v>696</v>
+      </c>
+      <c r="J96" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" t="s">
+        <v>404</v>
+      </c>
+      <c r="C97" t="s">
+        <v>493</v>
+      </c>
+      <c r="D97" t="s">
+        <v>600</v>
+      </c>
+      <c r="E97" t="s">
+        <v>672</v>
+      </c>
+      <c r="F97" t="s">
+        <v>696</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" t="s">
+        <v>93</v>
+      </c>
+      <c r="I97" t="s">
+        <v>696</v>
+      </c>
+      <c r="J97" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>184</v>
+      </c>
+      <c r="B98" t="s">
+        <v>384</v>
+      </c>
+      <c r="C98" t="s">
+        <v>494</v>
+      </c>
+      <c r="D98" t="s">
+        <v>601</v>
+      </c>
+      <c r="E98" t="s">
+        <v>673</v>
+      </c>
+      <c r="F98" t="s">
+        <v>696</v>
+      </c>
+      <c r="G98" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" t="s">
+        <v>93</v>
+      </c>
+      <c r="I98" t="s">
+        <v>696</v>
+      </c>
+      <c r="J98" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>185</v>
+      </c>
+      <c r="B99" t="s">
+        <v>405</v>
+      </c>
+      <c r="C99" t="s">
+        <v>495</v>
+      </c>
+      <c r="D99" t="s">
+        <v>602</v>
+      </c>
+      <c r="E99" t="s">
+        <v>673</v>
+      </c>
+      <c r="F99" t="s">
+        <v>696</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" t="s">
+        <v>93</v>
+      </c>
+      <c r="I99" t="s">
+        <v>696</v>
+      </c>
+      <c r="J99" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" t="s">
+        <v>406</v>
+      </c>
+      <c r="C100" t="s">
+        <v>384</v>
+      </c>
+      <c r="D100" t="s">
+        <v>603</v>
+      </c>
+      <c r="E100" t="s">
+        <v>674</v>
+      </c>
+      <c r="F100" t="s">
+        <v>696</v>
+      </c>
+      <c r="G100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" t="s">
+        <v>94</v>
+      </c>
+      <c r="I100" t="s">
+        <v>696</v>
+      </c>
+      <c r="J100" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>187</v>
+      </c>
+      <c r="B101" t="s">
+        <v>407</v>
+      </c>
+      <c r="C101" t="s">
+        <v>385</v>
+      </c>
+      <c r="D101" t="s">
+        <v>604</v>
+      </c>
+      <c r="E101" t="s">
+        <v>675</v>
+      </c>
+      <c r="F101" t="s">
+        <v>696</v>
+      </c>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" t="s">
+        <v>94</v>
+      </c>
+      <c r="I101" t="s">
+        <v>696</v>
+      </c>
+      <c r="J101" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" t="s">
+        <v>408</v>
+      </c>
+      <c r="C102" t="s">
+        <v>496</v>
+      </c>
+      <c r="D102" t="s">
+        <v>605</v>
+      </c>
+      <c r="E102" t="s">
+        <v>675</v>
+      </c>
+      <c r="F102" t="s">
+        <v>696</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="s">
+        <v>94</v>
+      </c>
+      <c r="I102" t="s">
+        <v>696</v>
+      </c>
+      <c r="J102" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" t="s">
+        <v>497</v>
+      </c>
+      <c r="D103" t="s">
+        <v>606</v>
+      </c>
+      <c r="E103" t="s">
+        <v>676</v>
+      </c>
+      <c r="F103" t="s">
+        <v>696</v>
+      </c>
+      <c r="G103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" t="s">
+        <v>94</v>
+      </c>
+      <c r="I103" t="s">
+        <v>696</v>
+      </c>
+      <c r="J103" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" t="s">
+        <v>409</v>
+      </c>
+      <c r="C104" t="s">
+        <v>498</v>
+      </c>
+      <c r="D104" t="s">
+        <v>607</v>
+      </c>
+      <c r="E104" t="s">
+        <v>676</v>
+      </c>
+      <c r="F104" t="s">
+        <v>696</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>94</v>
+      </c>
+      <c r="I104" t="s">
+        <v>696</v>
+      </c>
+      <c r="J104" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>191</v>
+      </c>
+      <c r="B105" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105" t="s">
+        <v>341</v>
+      </c>
+      <c r="D105" t="s">
+        <v>608</v>
+      </c>
+      <c r="E105" t="s">
+        <v>677</v>
+      </c>
+      <c r="F105" t="s">
+        <v>696</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" t="s">
+        <v>94</v>
+      </c>
+      <c r="I105" t="s">
+        <v>696</v>
+      </c>
+      <c r="J105" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" t="s">
+        <v>410</v>
+      </c>
+      <c r="C106" t="s">
+        <v>499</v>
+      </c>
+      <c r="D106" t="s">
+        <v>609</v>
+      </c>
+      <c r="E106" t="s">
+        <v>677</v>
+      </c>
+      <c r="F106" t="s">
+        <v>696</v>
+      </c>
+      <c r="G106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" t="s">
+        <v>94</v>
+      </c>
+      <c r="I106" t="s">
+        <v>696</v>
+      </c>
+      <c r="J106" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>193</v>
+      </c>
+      <c r="B107" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" t="s">
+        <v>500</v>
+      </c>
+      <c r="D107" t="s">
+        <v>610</v>
+      </c>
+      <c r="E107" t="s">
+        <v>678</v>
+      </c>
+      <c r="F107" t="s">
+        <v>696</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" t="s">
+        <v>94</v>
+      </c>
+      <c r="I107" t="s">
+        <v>696</v>
+      </c>
+      <c r="J107" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>194</v>
+      </c>
+      <c r="B108" t="s">
+        <v>412</v>
+      </c>
+      <c r="C108" t="s">
+        <v>501</v>
+      </c>
+      <c r="D108" t="s">
+        <v>611</v>
+      </c>
+      <c r="E108" t="s">
+        <v>678</v>
+      </c>
+      <c r="F108" t="s">
+        <v>696</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" t="s">
+        <v>94</v>
+      </c>
+      <c r="I108" t="s">
+        <v>696</v>
+      </c>
+      <c r="J108" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
+        <v>195</v>
+      </c>
+      <c r="B109" t="s">
+        <v>413</v>
+      </c>
+      <c r="C109" t="s">
+        <v>502</v>
+      </c>
+      <c r="D109" t="s">
+        <v>612</v>
+      </c>
+      <c r="E109" t="s">
+        <v>679</v>
+      </c>
+      <c r="F109" t="s">
+        <v>696</v>
+      </c>
+      <c r="G109" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" t="s">
+        <v>94</v>
+      </c>
+      <c r="I109" t="s">
+        <v>696</v>
+      </c>
+      <c r="J109" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>196</v>
+      </c>
+      <c r="B110" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" t="s">
+        <v>503</v>
+      </c>
+      <c r="D110" t="s">
+        <v>613</v>
+      </c>
+      <c r="E110" t="s">
+        <v>679</v>
+      </c>
+      <c r="F110" t="s">
+        <v>696</v>
+      </c>
+      <c r="G110" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" t="s">
+        <v>94</v>
+      </c>
+      <c r="I110" t="s">
+        <v>696</v>
+      </c>
+      <c r="J110" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>197</v>
+      </c>
+      <c r="B111" t="s">
+        <v>414</v>
+      </c>
+      <c r="C111" t="s">
+        <v>420</v>
+      </c>
+      <c r="D111" t="s">
+        <v>614</v>
+      </c>
+      <c r="E111" t="s">
+        <v>680</v>
+      </c>
+      <c r="F111" t="s">
+        <v>696</v>
+      </c>
+      <c r="G111" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" t="s">
+        <v>94</v>
+      </c>
+      <c r="I111" t="s">
+        <v>696</v>
+      </c>
+      <c r="J111" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" t="s">
+        <v>331</v>
+      </c>
+      <c r="C112" t="s">
+        <v>504</v>
+      </c>
+      <c r="D112" t="s">
+        <v>615</v>
+      </c>
+      <c r="E112" t="s">
+        <v>680</v>
+      </c>
+      <c r="F112" t="s">
+        <v>696</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" t="s">
+        <v>94</v>
+      </c>
+      <c r="I112" t="s">
+        <v>696</v>
+      </c>
+      <c r="J112" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>199</v>
+      </c>
+      <c r="B113" t="s">
+        <v>415</v>
+      </c>
+      <c r="C113" t="s">
+        <v>505</v>
+      </c>
+      <c r="D113" t="s">
+        <v>616</v>
+      </c>
+      <c r="E113" t="s">
+        <v>681</v>
+      </c>
+      <c r="F113" t="s">
+        <v>696</v>
+      </c>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" t="s">
+        <v>94</v>
+      </c>
+      <c r="I113" t="s">
+        <v>696</v>
+      </c>
+      <c r="J113" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>200</v>
+      </c>
+      <c r="B114" t="s">
+        <v>416</v>
+      </c>
+      <c r="C114" t="s">
+        <v>506</v>
+      </c>
+      <c r="D114" t="s">
+        <v>617</v>
+      </c>
+      <c r="E114" t="s">
+        <v>681</v>
+      </c>
+      <c r="F114" t="s">
+        <v>696</v>
+      </c>
+      <c r="G114" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" t="s">
+        <v>94</v>
+      </c>
+      <c r="I114" t="s">
+        <v>696</v>
+      </c>
+      <c r="J114" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>201</v>
+      </c>
+      <c r="B115" t="s">
+        <v>417</v>
+      </c>
+      <c r="C115" t="s">
+        <v>507</v>
+      </c>
+      <c r="D115" t="s">
+        <v>618</v>
+      </c>
+      <c r="E115" t="s">
+        <v>682</v>
+      </c>
+      <c r="F115" t="s">
+        <v>696</v>
+      </c>
+      <c r="G115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" t="s">
+        <v>94</v>
+      </c>
+      <c r="I115" t="s">
+        <v>696</v>
+      </c>
+      <c r="J115" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" t="s">
+        <v>340</v>
+      </c>
+      <c r="C116" t="s">
+        <v>424</v>
+      </c>
+      <c r="D116" t="s">
+        <v>619</v>
+      </c>
+      <c r="E116" t="s">
+        <v>682</v>
+      </c>
+      <c r="F116" t="s">
+        <v>696</v>
+      </c>
+      <c r="G116" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" t="s">
+        <v>94</v>
+      </c>
+      <c r="I116" t="s">
+        <v>696</v>
+      </c>
+      <c r="J116" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>203</v>
+      </c>
+      <c r="B117" t="s">
+        <v>335</v>
+      </c>
+      <c r="C117" t="s">
+        <v>330</v>
+      </c>
+      <c r="D117" t="s">
+        <v>620</v>
+      </c>
+      <c r="E117" t="s">
+        <v>683</v>
+      </c>
+      <c r="F117" t="s">
+        <v>696</v>
+      </c>
+      <c r="G117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" t="s">
+        <v>95</v>
+      </c>
+      <c r="I117" t="s">
+        <v>696</v>
+      </c>
+      <c r="J117" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>204</v>
+      </c>
+      <c r="B118" t="s">
+        <v>418</v>
+      </c>
+      <c r="C118" t="s">
+        <v>508</v>
+      </c>
+      <c r="D118" t="s">
+        <v>621</v>
+      </c>
+      <c r="E118" t="s">
+        <v>683</v>
+      </c>
+      <c r="F118" t="s">
+        <v>696</v>
+      </c>
+      <c r="G118" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" t="s">
+        <v>95</v>
+      </c>
+      <c r="I118" t="s">
+        <v>696</v>
+      </c>
+      <c r="J118" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>205</v>
+      </c>
+      <c r="B119" t="s">
+        <v>419</v>
+      </c>
+      <c r="C119" t="s">
+        <v>509</v>
+      </c>
+      <c r="D119" t="s">
+        <v>622</v>
+      </c>
+      <c r="E119" t="s">
+        <v>684</v>
+      </c>
+      <c r="F119" t="s">
+        <v>696</v>
+      </c>
+      <c r="G119" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" t="s">
+        <v>95</v>
+      </c>
+      <c r="I119" t="s">
+        <v>696</v>
+      </c>
+      <c r="J119" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>206</v>
+      </c>
+      <c r="B120" t="s">
+        <v>420</v>
+      </c>
+      <c r="C120" t="s">
+        <v>510</v>
+      </c>
+      <c r="D120" t="s">
+        <v>623</v>
+      </c>
+      <c r="E120" t="s">
+        <v>684</v>
+      </c>
+      <c r="F120" t="s">
+        <v>696</v>
+      </c>
+      <c r="G120" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" t="s">
+        <v>95</v>
+      </c>
+      <c r="I120" t="s">
+        <v>696</v>
+      </c>
+      <c r="J120" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>207</v>
+      </c>
+      <c r="B121" t="s">
+        <v>421</v>
+      </c>
+      <c r="C121" t="s">
+        <v>511</v>
+      </c>
+      <c r="D121" t="s">
+        <v>624</v>
+      </c>
+      <c r="E121" t="s">
+        <v>685</v>
+      </c>
+      <c r="F121" t="s">
+        <v>696</v>
+      </c>
+      <c r="G121" t="s">
+        <v>22</v>
+      </c>
+      <c r="H121" t="s">
+        <v>95</v>
+      </c>
+      <c r="I121" t="s">
+        <v>696</v>
+      </c>
+      <c r="J121" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>208</v>
+      </c>
+      <c r="B122" t="s">
+        <v>422</v>
+      </c>
+      <c r="C122" t="s">
+        <v>512</v>
+      </c>
+      <c r="D122" t="s">
+        <v>625</v>
+      </c>
+      <c r="E122" t="s">
+        <v>685</v>
+      </c>
+      <c r="F122" t="s">
+        <v>696</v>
+      </c>
+      <c r="G122" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" t="s">
+        <v>95</v>
+      </c>
+      <c r="I122" t="s">
+        <v>696</v>
+      </c>
+      <c r="J122" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>209</v>
+      </c>
+      <c r="B123" t="s">
+        <v>423</v>
+      </c>
+      <c r="C123" t="s">
+        <v>513</v>
+      </c>
+      <c r="D123" t="s">
+        <v>626</v>
+      </c>
+      <c r="E123" t="s">
+        <v>686</v>
+      </c>
+      <c r="F123" t="s">
+        <v>696</v>
+      </c>
+      <c r="G123" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" t="s">
+        <v>95</v>
+      </c>
+      <c r="I123" t="s">
+        <v>696</v>
+      </c>
+      <c r="J123" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>210</v>
+      </c>
+      <c r="B124" t="s">
+        <v>424</v>
+      </c>
+      <c r="C124" t="s">
+        <v>514</v>
+      </c>
+      <c r="D124" t="s">
+        <v>627</v>
+      </c>
+      <c r="E124" t="s">
+        <v>686</v>
+      </c>
+      <c r="F124" t="s">
+        <v>696</v>
+      </c>
+      <c r="G124" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" t="s">
+        <v>95</v>
+      </c>
+      <c r="I124" t="s">
+        <v>696</v>
+      </c>
+      <c r="J124" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>211</v>
+      </c>
+      <c r="B125" t="s">
+        <v>425</v>
+      </c>
+      <c r="C125" t="s">
+        <v>515</v>
+      </c>
+      <c r="D125" t="s">
+        <v>628</v>
+      </c>
+      <c r="E125" t="s">
+        <v>687</v>
+      </c>
+      <c r="F125" t="s">
+        <v>696</v>
+      </c>
+      <c r="G125" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" t="s">
+        <v>95</v>
+      </c>
+      <c r="I125" t="s">
+        <v>696</v>
+      </c>
+      <c r="J125" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>212</v>
+      </c>
+      <c r="B126" t="s">
+        <v>426</v>
+      </c>
+      <c r="C126" t="s">
+        <v>516</v>
+      </c>
+      <c r="D126" t="s">
+        <v>629</v>
+      </c>
+      <c r="E126" t="s">
+        <v>687</v>
+      </c>
+      <c r="F126" t="s">
+        <v>696</v>
+      </c>
+      <c r="G126" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" t="s">
+        <v>95</v>
+      </c>
+      <c r="I126" t="s">
+        <v>696</v>
+      </c>
+      <c r="J126" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>213</v>
+      </c>
+      <c r="B127" t="s">
+        <v>427</v>
+      </c>
+      <c r="C127" t="s">
+        <v>517</v>
+      </c>
+      <c r="D127" t="s">
+        <v>630</v>
+      </c>
+      <c r="E127" t="s">
+        <v>688</v>
+      </c>
+      <c r="F127" t="s">
+        <v>696</v>
+      </c>
+      <c r="G127" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" t="s">
+        <v>95</v>
+      </c>
+      <c r="I127" t="s">
+        <v>696</v>
+      </c>
+      <c r="J127" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>214</v>
+      </c>
+      <c r="B128" t="s">
+        <v>428</v>
+      </c>
+      <c r="C128" t="s">
+        <v>518</v>
+      </c>
+      <c r="D128" t="s">
+        <v>631</v>
+      </c>
+      <c r="E128" t="s">
+        <v>688</v>
+      </c>
+      <c r="F128" t="s">
+        <v>696</v>
+      </c>
+      <c r="G128" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" t="s">
+        <v>95</v>
+      </c>
+      <c r="I128" t="s">
+        <v>696</v>
+      </c>
+      <c r="J128" t="s">
+        <v>696</v>
       </c>
     </row>
   </sheetData>
